--- a/Tests/res_out_good.xlsx
+++ b/Tests/res_out_good.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7905"/>
+    <workbookView windowWidth="19665" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="res_out_good" sheetId="1" r:id="rId1"/>
@@ -50,8 +50,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,22 +74,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -95,39 +90,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,6 +97,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,9 +133,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,23 +163,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +195,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +285,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,19 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,139 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,6 +386,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -404,15 +428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -424,21 +439,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,16 +472,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -491,142 +491,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8778,10 +8778,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="ru-RU"/>
+              <a:rPr lang="en-US" altLang="ru-RU"/>
               <a:t>USB Speed</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="ru-RU"/>
+            <a:endParaRPr lang="en-US" altLang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8847,124 +8847,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="270"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>4</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
@@ -8973,358 +8973,358 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="61">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="66">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="68">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>511</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="101">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="102">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="103">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="104">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="105">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="106">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="107">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="108">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="109">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="110">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="111">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="112">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="113">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="114">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="115">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="116">
                   <c:v>511</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="117">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="118">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="121">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="122">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="123">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="124">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="125">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="126">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="127">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="128">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="129">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="130">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="131">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="132">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="133">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="134">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="135">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="136">
                   <c:v>511</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="137">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="138">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="141">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="142">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="143">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="144">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="145">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="146">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="147">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="148">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="149">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="150">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="151">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="152">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="153">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="154">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="155">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="156">
                   <c:v>511</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="157">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="142">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>256</c:v>
-                </c:pt>
                 <c:pt idx="158">
-                  <c:v>511</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>512</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>1</c:v>
@@ -9381,279 +9381,69 @@
                   <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="178">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="180">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="181">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="182">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="183">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="184">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="185">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="186">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="187">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="188">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="189">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="190">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="191">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="192">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="193">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="194">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="195">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="196">
                   <c:v>511</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="197">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="196">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="198">
-                  <c:v>3</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="269">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -9666,814 +9456,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="270"/>
                 <c:pt idx="0">
-                  <c:v>92452.8</c:v>
+                  <c:v>29319.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89592.4</c:v>
+                  <c:v>58078.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90090.1</c:v>
+                  <c:v>85394.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92873.5</c:v>
+                  <c:v>109200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92449.9</c:v>
+                  <c:v>181955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88809.9</c:v>
+                  <c:v>208366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92092.3</c:v>
+                  <c:v>219912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91636.6</c:v>
+                  <c:v>235360</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92606.9</c:v>
+                  <c:v>387389</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93095.4</c:v>
+                  <c:v>400205</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32132.6</c:v>
+                  <c:v>520549</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58305.6</c:v>
+                  <c:v>422964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112953</c:v>
+                  <c:v>653571</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>206532</c:v>
+                  <c:v>571822</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>351363</c:v>
+                  <c:v>751773</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>496447</c:v>
+                  <c:v>684543</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31237.3</c:v>
+                  <c:v>791307</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60413.8</c:v>
+                  <c:v>788063</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115221</c:v>
+                  <c:v>810010</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>203723</c:v>
+                  <c:v>814026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>346891</c:v>
+                  <c:v>29385.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>485275</c:v>
+                  <c:v>57873.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31400.1</c:v>
+                  <c:v>83222.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>61779.9</c:v>
+                  <c:v>109278</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114768</c:v>
+                  <c:v>181927</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>209052</c:v>
+                  <c:v>208035</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>346463</c:v>
+                  <c:v>220627</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>460101</c:v>
+                  <c:v>235156</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28645.9</c:v>
+                  <c:v>387728</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59710.4</c:v>
+                  <c:v>399975</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>115450</c:v>
+                  <c:v>521066</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>209946</c:v>
+                  <c:v>424175</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>346741</c:v>
+                  <c:v>653215</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>491461</c:v>
+                  <c:v>571988</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30298.4</c:v>
+                  <c:v>752106</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>61544.1</c:v>
+                  <c:v>685115</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>116492</c:v>
+                  <c:v>791372</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>209304</c:v>
+                  <c:v>788199</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>358648</c:v>
+                  <c:v>810372</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>502576</c:v>
+                  <c:v>813978</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32010.2</c:v>
+                  <c:v>29157.1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60337.3</c:v>
+                  <c:v>57818.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>114643</c:v>
+                  <c:v>83280.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>178579</c:v>
+                  <c:v>109358</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>329734</c:v>
+                  <c:v>182734</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>502971</c:v>
+                  <c:v>207781</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31727.9</c:v>
+                  <c:v>220653</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>61610.5</c:v>
+                  <c:v>235388</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>104819</c:v>
+                  <c:v>387932</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>195074</c:v>
+                  <c:v>400305</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>325740</c:v>
+                  <c:v>520571</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>486300</c:v>
+                  <c:v>423614</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>27319.4</c:v>
+                  <c:v>655690</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>59308.5</c:v>
+                  <c:v>572902</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>108595</c:v>
+                  <c:v>751855</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>189385</c:v>
+                  <c:v>685495</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>310475</c:v>
+                  <c:v>791237</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>461115</c:v>
+                  <c:v>787995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>29596.3</c:v>
+                  <c:v>809995</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>58754.4</c:v>
+                  <c:v>813949</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>114966</c:v>
+                  <c:v>29368.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>197902</c:v>
+                  <c:v>58616.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>346141</c:v>
+                  <c:v>83224.7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>464529</c:v>
+                  <c:v>109260</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>31940.7</c:v>
+                  <c:v>180231</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>53803.9</c:v>
+                  <c:v>208572</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>108000</c:v>
+                  <c:v>220287</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>202194</c:v>
+                  <c:v>235166</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>341829</c:v>
+                  <c:v>387563</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>479839</c:v>
+                  <c:v>400380</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>32104.8</c:v>
+                  <c:v>520635</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>58290.3</c:v>
+                  <c:v>422741</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>87711.6</c:v>
+                  <c:v>655173</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>114048</c:v>
+                  <c:v>573528</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>188304</c:v>
+                  <c:v>751955</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>205497</c:v>
+                  <c:v>684961</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>330135</c:v>
+                  <c:v>791606</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>342027</c:v>
+                  <c:v>788046</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>459920</c:v>
+                  <c:v>809990</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>476772</c:v>
+                  <c:v>813970</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>664837</c:v>
+                  <c:v>29419.6</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>603239</c:v>
+                  <c:v>58285.2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>748600</c:v>
+                  <c:v>82955.4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>759558</c:v>
+                  <c:v>109182</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>755218</c:v>
+                  <c:v>181507</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>758467</c:v>
+                  <c:v>201918</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>802364</c:v>
+                  <c:v>220216</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>791188</c:v>
+                  <c:v>235426</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>32014.3</c:v>
+                  <c:v>387355</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>54108.2</c:v>
+                  <c:v>400140</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>85684.9</c:v>
+                  <c:v>519305</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>115861</c:v>
+                  <c:v>424482</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>191597</c:v>
+                  <c:v>655105</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>209561</c:v>
+                  <c:v>573680</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>349422</c:v>
+                  <c:v>752055</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>355232</c:v>
+                  <c:v>685954</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>482318</c:v>
+                  <c:v>791703</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>455620</c:v>
+                  <c:v>787932</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>617956</c:v>
+                  <c:v>810037</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>608128</c:v>
+                  <c:v>813977</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>730809</c:v>
+                  <c:v>29442.1</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>744797</c:v>
+                  <c:v>58046.7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>754730</c:v>
+                  <c:v>82708.4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>759734</c:v>
+                  <c:v>109236</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>802321</c:v>
+                  <c:v>176647</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>792274</c:v>
+                  <c:v>202122</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>29967.9</c:v>
+                  <c:v>219690</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>61385.5</c:v>
+                  <c:v>235294</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>88157.5</c:v>
+                  <c:v>387820</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>107296</c:v>
+                  <c:v>400310</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>187945</c:v>
+                  <c:v>520339</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>190858</c:v>
+                  <c:v>424116</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>333430</c:v>
+                  <c:v>654541</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>354539</c:v>
+                  <c:v>572689</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>482723</c:v>
+                  <c:v>752057</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>490752</c:v>
+                  <c:v>685807</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>642077</c:v>
+                  <c:v>791682</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>570960</c:v>
+                  <c:v>787772</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>740888</c:v>
+                  <c:v>810089</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>735396</c:v>
+                  <c:v>814024</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>745577</c:v>
+                  <c:v>29242.3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>761080</c:v>
+                  <c:v>58253</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>798133</c:v>
+                  <c:v>82710.7</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>791303</c:v>
+                  <c:v>109099</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>29931.2</c:v>
+                  <c:v>175840</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>60432.1</c:v>
+                  <c:v>202250</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>92980</c:v>
+                  <c:v>219729</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>117661</c:v>
+                  <c:v>235194</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>197050</c:v>
+                  <c:v>387757</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>211032</c:v>
+                  <c:v>400095</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>350508</c:v>
+                  <c:v>520433</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>363364</c:v>
+                  <c:v>424783</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>483861</c:v>
+                  <c:v>655497</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>504350</c:v>
+                  <c:v>572638</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>673473</c:v>
+                  <c:v>751858</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>611972</c:v>
+                  <c:v>686870</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>746006</c:v>
+                  <c:v>791123</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>757526</c:v>
+                  <c:v>787875</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>757715</c:v>
+                  <c:v>809713</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>760574</c:v>
+                  <c:v>813954</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>799909</c:v>
+                  <c:v>29525.5</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>798124</c:v>
+                  <c:v>58131.1</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>31289.1</c:v>
+                  <c:v>82754.1</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>55225.7</c:v>
+                  <c:v>109105</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>91530.4</c:v>
+                  <c:v>182036</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>114962</c:v>
+                  <c:v>200557</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>191970</c:v>
+                  <c:v>219893</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>205149</c:v>
+                  <c:v>235090</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>354937</c:v>
+                  <c:v>387762</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>357183</c:v>
+                  <c:v>400410</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>483808</c:v>
+                  <c:v>518501</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>506345</c:v>
+                  <c:v>425068</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>666956</c:v>
+                  <c:v>655589</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>625837</c:v>
+                  <c:v>573189</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>749962</c:v>
+                  <c:v>751833</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>759139</c:v>
+                  <c:v>687738</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>757756</c:v>
+                  <c:v>791312</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>760727</c:v>
+                  <c:v>787804</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>802345</c:v>
+                  <c:v>809952</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>800673</c:v>
+                  <c:v>813950</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>32342.6</c:v>
+                  <c:v>29347.9</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>61852.5</c:v>
+                  <c:v>58038.3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>91835.8</c:v>
+                  <c:v>83160.1</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>117751</c:v>
+                  <c:v>109299</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>196243</c:v>
+                  <c:v>181847</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>211143</c:v>
+                  <c:v>208057</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>351165</c:v>
+                  <c:v>220429</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>360255</c:v>
+                  <c:v>235384</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>479661</c:v>
+                  <c:v>387437</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>486463</c:v>
+                  <c:v>400125</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>668911</c:v>
+                  <c:v>520803</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>621438</c:v>
+                  <c:v>423844</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>749869</c:v>
+                  <c:v>655406</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>760032</c:v>
+                  <c:v>572563</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>755797</c:v>
+                  <c:v>751725</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>760113</c:v>
+                  <c:v>685899</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>802275</c:v>
+                  <c:v>791511</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>789065</c:v>
+                  <c:v>787644</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>31715.8</c:v>
+                  <c:v>810452</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>54836.6</c:v>
+                  <c:v>814018</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>80508.8</c:v>
+                  <c:v>29129</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>108826</c:v>
+                  <c:v>59319</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>183150</c:v>
+                  <c:v>83444.6</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>198891</c:v>
+                  <c:v>109254</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>344305</c:v>
+                  <c:v>181993</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>362229</c:v>
+                  <c:v>208263</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>454366</c:v>
+                  <c:v>220287</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>500133</c:v>
+                  <c:v>235332</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>653283</c:v>
+                  <c:v>387825</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>624640</c:v>
+                  <c:v>400155</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>742703</c:v>
+                  <c:v>520696</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>752848</c:v>
+                  <c:v>425654</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>757376</c:v>
+                  <c:v>654670</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>757150</c:v>
+                  <c:v>571898</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>800870</c:v>
+                  <c:v>751957</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>784358</c:v>
+                  <c:v>685588</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>31103.2</c:v>
+                  <c:v>791739</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>59959.2</c:v>
+                  <c:v>788001</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>87222</c:v>
+                  <c:v>810124</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>109114</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>179805</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>211193</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>355939</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>362557</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>484776</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>504080</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>662558</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>618178</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>751408</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>753939</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>755462</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>761327</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>799949</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>798393</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>31783.4</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>59375.4</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>90738.6</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>114387</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>196453</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>210062</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>355948</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>346553</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>474550</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>498699</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>647715</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>610518</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>742338</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>732550</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>756611</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>760402</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>802343</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>795096</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>31049.2</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>58416.3</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>79681.3</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>109358</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>149391</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>183234</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>333622</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>349132</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>480508</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>482116</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>655158</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>596514</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>736480</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>732806</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>749544</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>757520</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>802229</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>796712</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>838672</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>839296</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>838673</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>839947</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>838785</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>839743</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>838647</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>839537</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>838800</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>839954</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>838841</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>840130</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>838703</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>839559</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>838681</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>840671</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>838783</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>839922</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>838839</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>840211</c:v>
+                  <c:v>814060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12812,604 +12392,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="260"/>
                 <c:pt idx="0">
-                  <c:v>11111.1</c:v>
+                  <c:v>22222.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57142.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145454.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>272728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>387500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>376470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>504000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>492308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>540426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>556522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>701370</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>798438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>764180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>805512</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44444.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66666.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155555.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>114285.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>290910</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>387500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>376470</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>525000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>426666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>635000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>609524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>664936</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>768422</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>781680</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>831708</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>815936</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22222.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44444.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66666.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>155555.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>145454.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>272728</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>266666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>364706</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>336842</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>504000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>492308</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>619512</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>595348</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>728572</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>742028</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>817600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>806300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>838524</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>825806</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18181.82</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36363.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>127272.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>145454.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>246154</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>387500</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>376470</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>547826</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>474074</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>651282</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>595348</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>809524</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>691892</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>798438</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>819200</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>881896</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>835918</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>66666.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88888.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>145454.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>266666</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>387500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>533334</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>525000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>635000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>609524</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>728572</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>711112</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>817600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>758518</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>808696</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>819200</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>22222.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>23529.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>88888.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>127272.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>145454.6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>214286</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>246154</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>364706</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>266666</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>547826</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>412904</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>686486</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>556522</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>784616</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>711112</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>774242</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>832520</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>835102</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>832520</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>22222.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>36363.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>66666.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>157894.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>266666</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>326316</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>504000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>474074</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>619512</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>544680</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>784616</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>624390</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>817600</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>736690</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>783908</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>806300</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>25000</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28571.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72727.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>136364</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145455</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>193750</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>188235</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>252000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>246154</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>270213</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>278261</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>350685</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>399219</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>382090</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>402756</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="141">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>72727.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>106666.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>364706</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>376470</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>504000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>492308</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>635000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>609524</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>711112</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>762686</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>769924</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>845454</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>825806</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>22222.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>54545.4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>72727.2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>145454.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>266666</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>387500</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="170">
+                  <c:v>525000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>474074</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>604762</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>522448</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>708334</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>873504</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>781680</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>805512</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>790734</c:v>
+                </c:pt>
+                <c:pt idx="180">
                   <c:v>22222.2</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>33333.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77777.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>57142.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>145455</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>193750</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>188235</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>262500</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>213333</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>317500</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>304762</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>340000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>332468</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>384211</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>390840</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>415854</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>407968</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11111.1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>22222.2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>33333.3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>77777.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>72727.3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>136364</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>133333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>182353</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>168421</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>252000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>246154</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>309756</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>297674</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>364286</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>371014</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>408800</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>403150</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>419262</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>412903</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9090.91</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>18181.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>63636.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>72727.3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>125000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>123077</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>193750</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>188235</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>273913</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>237037</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>325641</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>297674</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>404762</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>345946</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>399219</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>409600</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>440948</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>417959</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>33333.3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44444.4</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>72727.3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>133333</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>193750</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>266667</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>262500</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>317500</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>304762</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>364286</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>355556</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>408800</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>379259</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>404348</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>409600</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>11111.1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>11764.7</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44444.4</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>63636.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>72727.3</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107143</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>123077</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>182353</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>133333</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>273913</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>206452</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>343243</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>278261</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>392308</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>355556</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>387121</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>416260</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>417551</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>416260</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>11111.1</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>18181.8</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>33333.3</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>78947.4</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>133333</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>163158</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>252000</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>237037</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>309756</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>272340</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>392308</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>312195</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>408800</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>368345</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>391954</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>403150</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>36363.6</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>53333.3</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>125000</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>182353</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>188235</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>252000</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>246154</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>317500</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>304762</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>355556</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>381343</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>384962</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>422727</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>412903</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>11111.1</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>27272.7</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>36363.6</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>72727.3</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>133333</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>193750</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>262500</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>237037</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>302381</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>261224</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>354167</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>436752</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>390840</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>402756</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>395367</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>11111.1</c:v>
-                </c:pt>
                 <c:pt idx="181">
-                  <c:v>16666.7</c:v>
+                  <c:v>33333.4</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>36363.6</c:v>
+                  <c:v>72727.2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>72727.3</c:v>
+                  <c:v>145454.6</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>145455</c:v>
+                  <c:v>290910</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>182353</c:v>
+                  <c:v>364706</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>188235</c:v>
+                  <c:v>376470</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>196875</c:v>
+                  <c:v>393750</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>237037</c:v>
+                  <c:v>474074</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>325641</c:v>
+                  <c:v>651282</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>336842</c:v>
+                  <c:v>673684</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>344595</c:v>
+                  <c:v>689190</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>387879</c:v>
+                  <c:v>775758</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>405556</c:v>
+                  <c:v>811112</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>382090</c:v>
+                  <c:v>764180</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>437179</c:v>
+                  <c:v>874358</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>426667</c:v>
+                  <c:v>853334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16058,26 +15638,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="res_in_new_2"/>
-      <sheetName val="res_in_new_2+res_ping_good.xlsx!$A"/>
-      <sheetName val="$A"/>
-      <sheetName val="res_in_new_2+res_ping_good.xlsx!$A"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="B1">
-            <v>92452.8</v>
+            <v>29319.5</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="B2">
-            <v>89592.4</v>
+            <v>58078.8</v>
           </cell>
         </row>
         <row r="3">
@@ -16085,183 +15662,183 @@
             <v>3</v>
           </cell>
           <cell r="B3">
-            <v>90090.1</v>
+            <v>85394.7</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="B4">
-            <v>92873.5</v>
+            <v>109200</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="B5">
-            <v>92449.9</v>
+            <v>181955</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>3</v>
+            <v>8</v>
           </cell>
           <cell r="B6">
-            <v>88809.9</v>
+            <v>208366</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>3</v>
+            <v>15</v>
           </cell>
           <cell r="B7">
-            <v>92092.3</v>
+            <v>219912</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>3</v>
+            <v>16</v>
           </cell>
           <cell r="B8">
-            <v>91636.6</v>
+            <v>235360</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>3</v>
+            <v>31</v>
           </cell>
           <cell r="B9">
-            <v>92606.9</v>
+            <v>387389</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>3</v>
+            <v>32</v>
           </cell>
           <cell r="B10">
-            <v>93095.4</v>
+            <v>400205</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>1</v>
+            <v>63</v>
           </cell>
           <cell r="B11">
-            <v>32132.6</v>
+            <v>520549</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>2</v>
+            <v>64</v>
           </cell>
           <cell r="B12">
-            <v>58305.6</v>
+            <v>422964</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>4</v>
+            <v>127</v>
           </cell>
           <cell r="B13">
-            <v>112953</v>
+            <v>653571</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>8</v>
+            <v>128</v>
           </cell>
           <cell r="B14">
-            <v>206532</v>
+            <v>571822</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>16</v>
+            <v>255</v>
           </cell>
           <cell r="B15">
-            <v>351363</v>
+            <v>751773</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>32</v>
+            <v>256</v>
           </cell>
           <cell r="B16">
-            <v>496447</v>
+            <v>684543</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>1</v>
+            <v>511</v>
           </cell>
           <cell r="B17">
-            <v>31237.3</v>
+            <v>791307</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>2</v>
+            <v>512</v>
           </cell>
           <cell r="B18">
-            <v>60413.8</v>
+            <v>788063</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>4</v>
+            <v>1023</v>
           </cell>
           <cell r="B19">
-            <v>115221</v>
+            <v>810010</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>8</v>
+            <v>1024</v>
           </cell>
           <cell r="B20">
-            <v>203723</v>
+            <v>814026</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>16</v>
+            <v>1</v>
           </cell>
           <cell r="B21">
-            <v>346891</v>
+            <v>29385.8</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>32</v>
+            <v>2</v>
           </cell>
           <cell r="B22">
-            <v>485275</v>
+            <v>57873.7</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="B23">
-            <v>31400.1</v>
+            <v>83222.4</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="B24">
-            <v>61779.9</v>
+            <v>109278</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>4</v>
+            <v>7</v>
           </cell>
           <cell r="B25">
-            <v>114768</v>
+            <v>181927</v>
           </cell>
         </row>
         <row r="26">
@@ -16269,119 +15846,119 @@
             <v>8</v>
           </cell>
           <cell r="B26">
-            <v>209052</v>
+            <v>208035</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="B27">
-            <v>346463</v>
+            <v>220627</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>32</v>
+            <v>16</v>
           </cell>
           <cell r="B28">
-            <v>460101</v>
+            <v>235156</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>1</v>
+            <v>31</v>
           </cell>
           <cell r="B29">
-            <v>28645.9</v>
+            <v>387728</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>2</v>
+            <v>32</v>
           </cell>
           <cell r="B30">
-            <v>59710.4</v>
+            <v>399975</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>4</v>
+            <v>63</v>
           </cell>
           <cell r="B31">
-            <v>115450</v>
+            <v>521066</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>8</v>
+            <v>64</v>
           </cell>
           <cell r="B32">
-            <v>209946</v>
+            <v>424175</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>16</v>
+            <v>127</v>
           </cell>
           <cell r="B33">
-            <v>346741</v>
+            <v>653215</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>32</v>
+            <v>128</v>
           </cell>
           <cell r="B34">
-            <v>491461</v>
+            <v>571988</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>1</v>
+            <v>255</v>
           </cell>
           <cell r="B35">
-            <v>30298.4</v>
+            <v>752106</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>2</v>
+            <v>256</v>
           </cell>
           <cell r="B36">
-            <v>61544.1</v>
+            <v>685115</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>4</v>
+            <v>511</v>
           </cell>
           <cell r="B37">
-            <v>116492</v>
+            <v>791372</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>8</v>
+            <v>512</v>
           </cell>
           <cell r="B38">
-            <v>209304</v>
+            <v>788199</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>16</v>
+            <v>1023</v>
           </cell>
           <cell r="B39">
-            <v>358648</v>
+            <v>810372</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>32</v>
+            <v>1024</v>
           </cell>
           <cell r="B40">
-            <v>502576</v>
+            <v>813978</v>
           </cell>
         </row>
         <row r="41">
@@ -16389,7 +15966,7 @@
             <v>1</v>
           </cell>
           <cell r="B41">
-            <v>32010.2</v>
+            <v>29157.1</v>
           </cell>
         </row>
         <row r="42">
@@ -16397,223 +15974,223 @@
             <v>2</v>
           </cell>
           <cell r="B42">
-            <v>60337.3</v>
+            <v>57818.5</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="B43">
-            <v>114643</v>
+            <v>83280.1</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="B44">
-            <v>178579</v>
+            <v>109358</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>16</v>
+            <v>7</v>
           </cell>
           <cell r="B45">
-            <v>329734</v>
+            <v>182734</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>32</v>
+            <v>8</v>
           </cell>
           <cell r="B46">
-            <v>502971</v>
+            <v>207781</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>1</v>
+            <v>15</v>
           </cell>
           <cell r="B47">
-            <v>31727.9</v>
+            <v>220653</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>2</v>
+            <v>16</v>
           </cell>
           <cell r="B48">
-            <v>61610.5</v>
+            <v>235388</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>4</v>
+            <v>31</v>
           </cell>
           <cell r="B49">
-            <v>104819</v>
+            <v>387932</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>8</v>
+            <v>32</v>
           </cell>
           <cell r="B50">
-            <v>195074</v>
+            <v>400305</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>16</v>
+            <v>63</v>
           </cell>
           <cell r="B51">
-            <v>325740</v>
+            <v>520571</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>32</v>
+            <v>64</v>
           </cell>
           <cell r="B52">
-            <v>486300</v>
+            <v>423614</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>1</v>
+            <v>127</v>
           </cell>
           <cell r="B53">
-            <v>27319.4</v>
+            <v>655690</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>2</v>
+            <v>128</v>
           </cell>
           <cell r="B54">
-            <v>59308.5</v>
+            <v>572902</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>4</v>
+            <v>255</v>
           </cell>
           <cell r="B55">
-            <v>108595</v>
+            <v>751855</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>8</v>
+            <v>256</v>
           </cell>
           <cell r="B56">
-            <v>189385</v>
+            <v>685495</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>16</v>
+            <v>511</v>
           </cell>
           <cell r="B57">
-            <v>310475</v>
+            <v>791237</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>32</v>
+            <v>512</v>
           </cell>
           <cell r="B58">
-            <v>461115</v>
+            <v>787995</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>1</v>
+            <v>1023</v>
           </cell>
           <cell r="B59">
-            <v>29596.3</v>
+            <v>809995</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>2</v>
+            <v>1024</v>
           </cell>
           <cell r="B60">
-            <v>58754.4</v>
+            <v>813949</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="B61">
-            <v>114966</v>
+            <v>29368.6</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>8</v>
+            <v>2</v>
           </cell>
           <cell r="B62">
-            <v>197902</v>
+            <v>58616.6</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>16</v>
+            <v>3</v>
           </cell>
           <cell r="B63">
-            <v>346141</v>
+            <v>83224.7</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>32</v>
+            <v>4</v>
           </cell>
           <cell r="B64">
-            <v>464529</v>
+            <v>109260</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="B65">
-            <v>31940.7</v>
+            <v>180231</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="B66">
-            <v>53803.9</v>
+            <v>208572</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>4</v>
+            <v>15</v>
           </cell>
           <cell r="B67">
-            <v>108000</v>
+            <v>220287</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>8</v>
+            <v>16</v>
           </cell>
           <cell r="B68">
-            <v>202194</v>
+            <v>235166</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>16</v>
+            <v>31</v>
           </cell>
           <cell r="B69">
-            <v>341829</v>
+            <v>387563</v>
           </cell>
         </row>
         <row r="70">
@@ -16621,727 +16198,727 @@
             <v>32</v>
           </cell>
           <cell r="B70">
-            <v>479839</v>
+            <v>400380</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>1</v>
+            <v>63</v>
           </cell>
           <cell r="B71">
-            <v>32104.8</v>
+            <v>520635</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>2</v>
+            <v>64</v>
           </cell>
           <cell r="B72">
-            <v>58290.3</v>
+            <v>422741</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>3</v>
+            <v>127</v>
           </cell>
           <cell r="B73">
-            <v>87711.6</v>
+            <v>655173</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>4</v>
+            <v>128</v>
           </cell>
           <cell r="B74">
-            <v>114048</v>
+            <v>573528</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>7</v>
+            <v>255</v>
           </cell>
           <cell r="B75">
-            <v>188304</v>
+            <v>751955</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>8</v>
+            <v>256</v>
           </cell>
           <cell r="B76">
-            <v>205497</v>
+            <v>684961</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>15</v>
+            <v>511</v>
           </cell>
           <cell r="B77">
-            <v>330135</v>
+            <v>791606</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>16</v>
+            <v>512</v>
           </cell>
           <cell r="B78">
-            <v>342027</v>
+            <v>788046</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>31</v>
+            <v>1023</v>
           </cell>
           <cell r="B79">
-            <v>459920</v>
+            <v>809990</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>32</v>
+            <v>1024</v>
           </cell>
           <cell r="B80">
-            <v>476772</v>
+            <v>813970</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>63</v>
+            <v>1</v>
           </cell>
           <cell r="B81">
-            <v>664837</v>
+            <v>29419.6</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>64</v>
+            <v>2</v>
           </cell>
           <cell r="B82">
-            <v>603239</v>
+            <v>58285.2</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>127</v>
+            <v>3</v>
           </cell>
           <cell r="B83">
-            <v>748600</v>
+            <v>82955.4</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>128</v>
+            <v>4</v>
           </cell>
           <cell r="B84">
-            <v>759558</v>
+            <v>109182</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>255</v>
+            <v>7</v>
           </cell>
           <cell r="B85">
-            <v>755218</v>
+            <v>181507</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>256</v>
+            <v>8</v>
           </cell>
           <cell r="B86">
-            <v>758467</v>
+            <v>201918</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>511</v>
+            <v>15</v>
           </cell>
           <cell r="B87">
-            <v>802364</v>
+            <v>220216</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>512</v>
+            <v>16</v>
           </cell>
           <cell r="B88">
-            <v>791188</v>
+            <v>235426</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1</v>
+            <v>31</v>
           </cell>
           <cell r="B89">
-            <v>32014.3</v>
+            <v>387355</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>2</v>
+            <v>32</v>
           </cell>
           <cell r="B90">
-            <v>54108.2</v>
+            <v>400140</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>3</v>
+            <v>63</v>
           </cell>
           <cell r="B91">
-            <v>85684.9</v>
+            <v>519305</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>4</v>
+            <v>64</v>
           </cell>
           <cell r="B92">
-            <v>115861</v>
+            <v>424482</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>7</v>
+            <v>127</v>
           </cell>
           <cell r="B93">
-            <v>191597</v>
+            <v>655105</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>8</v>
+            <v>128</v>
           </cell>
           <cell r="B94">
-            <v>209561</v>
+            <v>573680</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>15</v>
+            <v>255</v>
           </cell>
           <cell r="B95">
-            <v>349422</v>
+            <v>752055</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>16</v>
+            <v>256</v>
           </cell>
           <cell r="B96">
-            <v>355232</v>
+            <v>685954</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>31</v>
+            <v>511</v>
           </cell>
           <cell r="B97">
-            <v>482318</v>
+            <v>791703</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>32</v>
+            <v>512</v>
           </cell>
           <cell r="B98">
-            <v>455620</v>
+            <v>787932</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>63</v>
+            <v>1023</v>
           </cell>
           <cell r="B99">
-            <v>617956</v>
+            <v>810037</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>64</v>
+            <v>1024</v>
           </cell>
           <cell r="B100">
-            <v>608128</v>
+            <v>813977</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>127</v>
+            <v>1</v>
           </cell>
           <cell r="B101">
-            <v>730809</v>
+            <v>29442.1</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>128</v>
+            <v>2</v>
           </cell>
           <cell r="B102">
-            <v>744797</v>
+            <v>58046.7</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>255</v>
+            <v>3</v>
           </cell>
           <cell r="B103">
-            <v>754730</v>
+            <v>82708.4</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>256</v>
+            <v>4</v>
           </cell>
           <cell r="B104">
-            <v>759734</v>
+            <v>109236</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>511</v>
+            <v>7</v>
           </cell>
           <cell r="B105">
-            <v>802321</v>
+            <v>176647</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>512</v>
+            <v>8</v>
           </cell>
           <cell r="B106">
-            <v>792274</v>
+            <v>202122</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1</v>
+            <v>15</v>
           </cell>
           <cell r="B107">
-            <v>29967.9</v>
+            <v>219690</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>2</v>
+            <v>16</v>
           </cell>
           <cell r="B108">
-            <v>61385.5</v>
+            <v>235294</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>3</v>
+            <v>31</v>
           </cell>
           <cell r="B109">
-            <v>88157.5</v>
+            <v>387820</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>4</v>
+            <v>32</v>
           </cell>
           <cell r="B110">
-            <v>107296</v>
+            <v>400310</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>7</v>
+            <v>63</v>
           </cell>
           <cell r="B111">
-            <v>187945</v>
+            <v>520339</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>8</v>
+            <v>64</v>
           </cell>
           <cell r="B112">
-            <v>190858</v>
+            <v>424116</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>15</v>
+            <v>127</v>
           </cell>
           <cell r="B113">
-            <v>333430</v>
+            <v>654541</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>16</v>
+            <v>128</v>
           </cell>
           <cell r="B114">
-            <v>354539</v>
+            <v>572689</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>31</v>
+            <v>255</v>
           </cell>
           <cell r="B115">
-            <v>482723</v>
+            <v>752057</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>32</v>
+            <v>256</v>
           </cell>
           <cell r="B116">
-            <v>490752</v>
+            <v>685807</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>63</v>
+            <v>511</v>
           </cell>
           <cell r="B117">
-            <v>642077</v>
+            <v>791682</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>64</v>
+            <v>512</v>
           </cell>
           <cell r="B118">
-            <v>570960</v>
+            <v>787772</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>127</v>
+            <v>1023</v>
           </cell>
           <cell r="B119">
-            <v>740888</v>
+            <v>810089</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>128</v>
+            <v>1024</v>
           </cell>
           <cell r="B120">
-            <v>735396</v>
+            <v>814024</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>255</v>
+            <v>1</v>
           </cell>
           <cell r="B121">
-            <v>745577</v>
+            <v>29242.3</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>256</v>
+            <v>2</v>
           </cell>
           <cell r="B122">
-            <v>761080</v>
+            <v>58253</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>511</v>
+            <v>3</v>
           </cell>
           <cell r="B123">
-            <v>798133</v>
+            <v>82710.7</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>512</v>
+            <v>4</v>
           </cell>
           <cell r="B124">
-            <v>791303</v>
+            <v>109099</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="B125">
-            <v>29931.2</v>
+            <v>175840</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="B126">
-            <v>60432.1</v>
+            <v>202250</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>3</v>
+            <v>15</v>
           </cell>
           <cell r="B127">
-            <v>92980</v>
+            <v>219729</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>4</v>
+            <v>16</v>
           </cell>
           <cell r="B128">
-            <v>117661</v>
+            <v>235194</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>7</v>
+            <v>31</v>
           </cell>
           <cell r="B129">
-            <v>197050</v>
+            <v>387757</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>8</v>
+            <v>32</v>
           </cell>
           <cell r="B130">
-            <v>211032</v>
+            <v>400095</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>15</v>
+            <v>63</v>
           </cell>
           <cell r="B131">
-            <v>350508</v>
+            <v>520433</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>16</v>
+            <v>64</v>
           </cell>
           <cell r="B132">
-            <v>363364</v>
+            <v>424783</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>31</v>
+            <v>127</v>
           </cell>
           <cell r="B133">
-            <v>483861</v>
+            <v>655497</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>32</v>
+            <v>128</v>
           </cell>
           <cell r="B134">
-            <v>504350</v>
+            <v>572638</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>63</v>
+            <v>255</v>
           </cell>
           <cell r="B135">
-            <v>673473</v>
+            <v>751858</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>64</v>
+            <v>256</v>
           </cell>
           <cell r="B136">
-            <v>611972</v>
+            <v>686870</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>127</v>
+            <v>511</v>
           </cell>
           <cell r="B137">
-            <v>746006</v>
+            <v>791123</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>128</v>
+            <v>512</v>
           </cell>
           <cell r="B138">
-            <v>757526</v>
+            <v>787875</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>255</v>
+            <v>1023</v>
           </cell>
           <cell r="B139">
-            <v>757715</v>
+            <v>809713</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>256</v>
+            <v>1024</v>
           </cell>
           <cell r="B140">
-            <v>760574</v>
+            <v>813954</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>511</v>
+            <v>1</v>
           </cell>
           <cell r="B141">
-            <v>799909</v>
+            <v>29525.5</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>512</v>
+            <v>2</v>
           </cell>
           <cell r="B142">
-            <v>798124</v>
+            <v>58131.1</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="B143">
-            <v>31289.1</v>
+            <v>82754.1</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="B144">
-            <v>55225.7</v>
+            <v>109105</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="B145">
-            <v>91530.4</v>
+            <v>182036</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="B146">
-            <v>114962</v>
+            <v>200557</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>7</v>
+            <v>15</v>
           </cell>
           <cell r="B147">
-            <v>191970</v>
+            <v>219893</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>8</v>
+            <v>16</v>
           </cell>
           <cell r="B148">
-            <v>205149</v>
+            <v>235090</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>15</v>
+            <v>31</v>
           </cell>
           <cell r="B149">
-            <v>354937</v>
+            <v>387762</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="B150">
-            <v>357183</v>
+            <v>400410</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>31</v>
+            <v>63</v>
           </cell>
           <cell r="B151">
-            <v>483808</v>
+            <v>518501</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>32</v>
+            <v>64</v>
           </cell>
           <cell r="B152">
-            <v>506345</v>
+            <v>425068</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>63</v>
+            <v>127</v>
           </cell>
           <cell r="B153">
-            <v>666956</v>
+            <v>655589</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>64</v>
+            <v>128</v>
           </cell>
           <cell r="B154">
-            <v>625837</v>
+            <v>573189</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>127</v>
+            <v>255</v>
           </cell>
           <cell r="B155">
-            <v>749962</v>
+            <v>751833</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>128</v>
+            <v>256</v>
           </cell>
           <cell r="B156">
-            <v>759139</v>
+            <v>687738</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>255</v>
+            <v>511</v>
           </cell>
           <cell r="B157">
-            <v>757756</v>
+            <v>791312</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>256</v>
+            <v>512</v>
           </cell>
           <cell r="B158">
-            <v>760727</v>
+            <v>787804</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>511</v>
+            <v>1023</v>
           </cell>
           <cell r="B159">
-            <v>802345</v>
+            <v>809952</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>512</v>
+            <v>1024</v>
           </cell>
           <cell r="B160">
-            <v>800673</v>
+            <v>813950</v>
           </cell>
         </row>
         <row r="161">
@@ -17349,7 +16926,7 @@
             <v>1</v>
           </cell>
           <cell r="B161">
-            <v>32342.6</v>
+            <v>29347.9</v>
           </cell>
         </row>
         <row r="162">
@@ -17357,7 +16934,7 @@
             <v>2</v>
           </cell>
           <cell r="B162">
-            <v>61852.5</v>
+            <v>58038.3</v>
           </cell>
         </row>
         <row r="163">
@@ -17365,7 +16942,7 @@
             <v>3</v>
           </cell>
           <cell r="B163">
-            <v>91835.8</v>
+            <v>83160.1</v>
           </cell>
         </row>
         <row r="164">
@@ -17373,7 +16950,7 @@
             <v>4</v>
           </cell>
           <cell r="B164">
-            <v>117751</v>
+            <v>109299</v>
           </cell>
         </row>
         <row r="165">
@@ -17381,7 +16958,7 @@
             <v>7</v>
           </cell>
           <cell r="B165">
-            <v>196243</v>
+            <v>181847</v>
           </cell>
         </row>
         <row r="166">
@@ -17389,7 +16966,7 @@
             <v>8</v>
           </cell>
           <cell r="B166">
-            <v>211143</v>
+            <v>208057</v>
           </cell>
         </row>
         <row r="167">
@@ -17397,7 +16974,7 @@
             <v>15</v>
           </cell>
           <cell r="B167">
-            <v>351165</v>
+            <v>220429</v>
           </cell>
         </row>
         <row r="168">
@@ -17405,7 +16982,7 @@
             <v>16</v>
           </cell>
           <cell r="B168">
-            <v>360255</v>
+            <v>235384</v>
           </cell>
         </row>
         <row r="169">
@@ -17413,7 +16990,7 @@
             <v>31</v>
           </cell>
           <cell r="B169">
-            <v>479661</v>
+            <v>387437</v>
           </cell>
         </row>
         <row r="170">
@@ -17421,7 +16998,7 @@
             <v>32</v>
           </cell>
           <cell r="B170">
-            <v>486463</v>
+            <v>400125</v>
           </cell>
         </row>
         <row r="171">
@@ -17429,7 +17006,7 @@
             <v>63</v>
           </cell>
           <cell r="B171">
-            <v>668911</v>
+            <v>520803</v>
           </cell>
         </row>
         <row r="172">
@@ -17437,7 +17014,7 @@
             <v>64</v>
           </cell>
           <cell r="B172">
-            <v>621438</v>
+            <v>423844</v>
           </cell>
         </row>
         <row r="173">
@@ -17445,7 +17022,7 @@
             <v>127</v>
           </cell>
           <cell r="B173">
-            <v>749869</v>
+            <v>655406</v>
           </cell>
         </row>
         <row r="174">
@@ -17453,7 +17030,7 @@
             <v>128</v>
           </cell>
           <cell r="B174">
-            <v>760032</v>
+            <v>572563</v>
           </cell>
         </row>
         <row r="175">
@@ -17461,7 +17038,7 @@
             <v>255</v>
           </cell>
           <cell r="B175">
-            <v>755797</v>
+            <v>751725</v>
           </cell>
         </row>
         <row r="176">
@@ -17469,7 +17046,7 @@
             <v>256</v>
           </cell>
           <cell r="B176">
-            <v>760113</v>
+            <v>685899</v>
           </cell>
         </row>
         <row r="177">
@@ -17477,7 +17054,7 @@
             <v>511</v>
           </cell>
           <cell r="B177">
-            <v>802275</v>
+            <v>791511</v>
           </cell>
         </row>
         <row r="178">
@@ -17485,749 +17062,186 @@
             <v>512</v>
           </cell>
           <cell r="B178">
-            <v>789065</v>
+            <v>787644</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>1</v>
+            <v>1023</v>
           </cell>
           <cell r="B179">
-            <v>31715.8</v>
+            <v>810452</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>2</v>
+            <v>1024</v>
           </cell>
           <cell r="B180">
-            <v>54836.6</v>
+            <v>814018</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="B181">
-            <v>80508.8</v>
+            <v>29129</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="B182">
-            <v>108826</v>
+            <v>59319</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>7</v>
+            <v>3</v>
           </cell>
           <cell r="B183">
-            <v>183150</v>
+            <v>83444.6</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="B184">
-            <v>198891</v>
+            <v>109254</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>15</v>
+            <v>7</v>
           </cell>
           <cell r="B185">
-            <v>344305</v>
+            <v>181993</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>16</v>
+            <v>8</v>
           </cell>
           <cell r="B186">
-            <v>362229</v>
+            <v>208263</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>31</v>
+            <v>15</v>
           </cell>
           <cell r="B187">
-            <v>454366</v>
+            <v>220287</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>32</v>
+            <v>16</v>
           </cell>
           <cell r="B188">
-            <v>500133</v>
+            <v>235332</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>63</v>
+            <v>31</v>
           </cell>
           <cell r="B189">
-            <v>653283</v>
+            <v>387825</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>64</v>
+            <v>32</v>
           </cell>
           <cell r="B190">
-            <v>624640</v>
+            <v>400155</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>127</v>
+            <v>63</v>
           </cell>
           <cell r="B191">
-            <v>742703</v>
+            <v>520696</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>128</v>
+            <v>64</v>
           </cell>
           <cell r="B192">
-            <v>752848</v>
+            <v>425654</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>255</v>
+            <v>127</v>
           </cell>
           <cell r="B193">
-            <v>757376</v>
+            <v>654670</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>256</v>
+            <v>128</v>
           </cell>
           <cell r="B194">
-            <v>757150</v>
+            <v>571898</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>511</v>
+            <v>255</v>
           </cell>
           <cell r="B195">
-            <v>800870</v>
+            <v>751957</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>512</v>
+            <v>256</v>
           </cell>
           <cell r="B196">
-            <v>784358</v>
+            <v>685588</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>1</v>
+            <v>511</v>
           </cell>
           <cell r="B197">
-            <v>31103.2</v>
+            <v>791739</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>2</v>
+            <v>512</v>
           </cell>
           <cell r="B198">
-            <v>59959.2</v>
+            <v>788001</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>3</v>
+            <v>1023</v>
           </cell>
           <cell r="B199">
-            <v>87222</v>
+            <v>810124</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>4</v>
+            <v>1024</v>
           </cell>
           <cell r="B200">
-            <v>109114</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>7</v>
-          </cell>
-          <cell r="B201">
-            <v>179805</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>8</v>
-          </cell>
-          <cell r="B202">
-            <v>211193</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>15</v>
-          </cell>
-          <cell r="B203">
-            <v>355939</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>16</v>
-          </cell>
-          <cell r="B204">
-            <v>362557</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>31</v>
-          </cell>
-          <cell r="B205">
-            <v>484776</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>32</v>
-          </cell>
-          <cell r="B206">
-            <v>504080</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>63</v>
-          </cell>
-          <cell r="B207">
-            <v>662558</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>64</v>
-          </cell>
-          <cell r="B208">
-            <v>618178</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>127</v>
-          </cell>
-          <cell r="B209">
-            <v>751408</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>128</v>
-          </cell>
-          <cell r="B210">
-            <v>753939</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>255</v>
-          </cell>
-          <cell r="B211">
-            <v>755462</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>256</v>
-          </cell>
-          <cell r="B212">
-            <v>761327</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>511</v>
-          </cell>
-          <cell r="B213">
-            <v>799949</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>512</v>
-          </cell>
-          <cell r="B214">
-            <v>798393</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>1</v>
-          </cell>
-          <cell r="B215">
-            <v>31783.4</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>2</v>
-          </cell>
-          <cell r="B216">
-            <v>59375.4</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>3</v>
-          </cell>
-          <cell r="B217">
-            <v>90738.6</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>4</v>
-          </cell>
-          <cell r="B218">
-            <v>114387</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>7</v>
-          </cell>
-          <cell r="B219">
-            <v>196453</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>8</v>
-          </cell>
-          <cell r="B220">
-            <v>210062</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>15</v>
-          </cell>
-          <cell r="B221">
-            <v>355948</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>16</v>
-          </cell>
-          <cell r="B222">
-            <v>346553</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>31</v>
-          </cell>
-          <cell r="B223">
-            <v>474550</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>32</v>
-          </cell>
-          <cell r="B224">
-            <v>498699</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>63</v>
-          </cell>
-          <cell r="B225">
-            <v>647715</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>64</v>
-          </cell>
-          <cell r="B226">
-            <v>610518</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>127</v>
-          </cell>
-          <cell r="B227">
-            <v>742338</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>128</v>
-          </cell>
-          <cell r="B228">
-            <v>732550</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>255</v>
-          </cell>
-          <cell r="B229">
-            <v>756611</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>256</v>
-          </cell>
-          <cell r="B230">
-            <v>760402</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>511</v>
-          </cell>
-          <cell r="B231">
-            <v>802343</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>512</v>
-          </cell>
-          <cell r="B232">
-            <v>795096</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>1</v>
-          </cell>
-          <cell r="B233">
-            <v>31049.2</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>2</v>
-          </cell>
-          <cell r="B234">
-            <v>58416.3</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>3</v>
-          </cell>
-          <cell r="B235">
-            <v>79681.3</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>4</v>
-          </cell>
-          <cell r="B236">
-            <v>109358</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>7</v>
-          </cell>
-          <cell r="B237">
-            <v>149391</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>8</v>
-          </cell>
-          <cell r="B238">
-            <v>183234</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>15</v>
-          </cell>
-          <cell r="B239">
-            <v>333622</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>16</v>
-          </cell>
-          <cell r="B240">
-            <v>349132</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>31</v>
-          </cell>
-          <cell r="B241">
-            <v>480508</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>32</v>
-          </cell>
-          <cell r="B242">
-            <v>482116</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>63</v>
-          </cell>
-          <cell r="B243">
-            <v>655158</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>64</v>
-          </cell>
-          <cell r="B244">
-            <v>596514</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>127</v>
-          </cell>
-          <cell r="B245">
-            <v>736480</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>128</v>
-          </cell>
-          <cell r="B246">
-            <v>732806</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>255</v>
-          </cell>
-          <cell r="B247">
-            <v>749544</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>256</v>
-          </cell>
-          <cell r="B248">
-            <v>757520</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>511</v>
-          </cell>
-          <cell r="B249">
-            <v>802229</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>512</v>
-          </cell>
-          <cell r="B250">
-            <v>796712</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>1023</v>
-          </cell>
-          <cell r="B251">
-            <v>838672</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>1024</v>
-          </cell>
-          <cell r="B252">
-            <v>839296</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>1023</v>
-          </cell>
-          <cell r="B253">
-            <v>838673</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>1024</v>
-          </cell>
-          <cell r="B254">
-            <v>839947</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>1023</v>
-          </cell>
-          <cell r="B255">
-            <v>838785</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>1024</v>
-          </cell>
-          <cell r="B256">
-            <v>839743</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>1023</v>
-          </cell>
-          <cell r="B257">
-            <v>838647</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>1024</v>
-          </cell>
-          <cell r="B258">
-            <v>839537</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>1023</v>
-          </cell>
-          <cell r="B259">
-            <v>838800</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>1024</v>
-          </cell>
-          <cell r="B260">
-            <v>839954</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>1023</v>
-          </cell>
-          <cell r="B261">
-            <v>838841</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>1024</v>
-          </cell>
-          <cell r="B262">
-            <v>840130</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>1023</v>
-          </cell>
-          <cell r="B263">
-            <v>838703</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>1024</v>
-          </cell>
-          <cell r="B264">
-            <v>839559</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>1023</v>
-          </cell>
-          <cell r="B265">
-            <v>838681</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>1024</v>
-          </cell>
-          <cell r="B266">
-            <v>840671</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>1023</v>
-          </cell>
-          <cell r="B267">
-            <v>838783</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>1024</v>
-          </cell>
-          <cell r="B268">
-            <v>839922</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>1023</v>
-          </cell>
-          <cell r="B269">
-            <v>838839</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>1024</v>
-          </cell>
-          <cell r="B270">
-            <v>840211</v>
+            <v>814060</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -18246,7 +17260,7 @@
             <v>1</v>
           </cell>
           <cell r="V1">
-            <v>11111.1</v>
+            <v>22222.2</v>
           </cell>
         </row>
         <row r="2">
@@ -18254,7 +17268,7 @@
             <v>2</v>
           </cell>
           <cell r="V2">
-            <v>25000</v>
+            <v>50000</v>
           </cell>
         </row>
         <row r="3">
@@ -18262,7 +17276,7 @@
             <v>3</v>
           </cell>
           <cell r="V3">
-            <v>30000</v>
+            <v>60000</v>
           </cell>
         </row>
         <row r="4">
@@ -18270,7 +17284,7 @@
             <v>4</v>
           </cell>
           <cell r="V4">
-            <v>28571.4</v>
+            <v>57142.8</v>
           </cell>
         </row>
         <row r="5">
@@ -18278,7 +17292,7 @@
             <v>7</v>
           </cell>
           <cell r="V5">
-            <v>70000</v>
+            <v>140000</v>
           </cell>
         </row>
         <row r="6">
@@ -18286,7 +17300,7 @@
             <v>8</v>
           </cell>
           <cell r="V6">
-            <v>72727.3</v>
+            <v>145454.6</v>
           </cell>
         </row>
         <row r="7">
@@ -18294,7 +17308,7 @@
             <v>15</v>
           </cell>
           <cell r="V7">
-            <v>136364</v>
+            <v>272728</v>
           </cell>
         </row>
         <row r="8">
@@ -18302,7 +17316,7 @@
             <v>16</v>
           </cell>
           <cell r="V8">
-            <v>145455</v>
+            <v>290910</v>
           </cell>
         </row>
         <row r="9">
@@ -18310,7 +17324,7 @@
             <v>31</v>
           </cell>
           <cell r="V9">
-            <v>193750</v>
+            <v>387500</v>
           </cell>
         </row>
         <row r="10">
@@ -18318,7 +17332,7 @@
             <v>32</v>
           </cell>
           <cell r="V10">
-            <v>188235</v>
+            <v>376470</v>
           </cell>
         </row>
         <row r="11">
@@ -18326,7 +17340,7 @@
             <v>63</v>
           </cell>
           <cell r="V11">
-            <v>252000</v>
+            <v>504000</v>
           </cell>
         </row>
         <row r="12">
@@ -18334,7 +17348,7 @@
             <v>64</v>
           </cell>
           <cell r="V12">
-            <v>246154</v>
+            <v>492308</v>
           </cell>
         </row>
         <row r="13">
@@ -18342,7 +17356,7 @@
             <v>127</v>
           </cell>
           <cell r="V13">
-            <v>270213</v>
+            <v>540426</v>
           </cell>
         </row>
         <row r="14">
@@ -18350,7 +17364,7 @@
             <v>128</v>
           </cell>
           <cell r="V14">
-            <v>278261</v>
+            <v>556522</v>
           </cell>
         </row>
         <row r="15">
@@ -18358,7 +17372,7 @@
             <v>255</v>
           </cell>
           <cell r="V15">
-            <v>375000</v>
+            <v>750000</v>
           </cell>
         </row>
         <row r="16">
@@ -18366,7 +17380,7 @@
             <v>256</v>
           </cell>
           <cell r="V16">
-            <v>350685</v>
+            <v>701370</v>
           </cell>
         </row>
         <row r="17">
@@ -18374,7 +17388,7 @@
             <v>511</v>
           </cell>
           <cell r="V17">
-            <v>399219</v>
+            <v>798438</v>
           </cell>
         </row>
         <row r="18">
@@ -18382,7 +17396,7 @@
             <v>512</v>
           </cell>
           <cell r="V18">
-            <v>382090</v>
+            <v>764180</v>
           </cell>
         </row>
         <row r="19">
@@ -18390,7 +17404,7 @@
             <v>1023</v>
           </cell>
           <cell r="V19">
-            <v>402756</v>
+            <v>805512</v>
           </cell>
         </row>
         <row r="20">
@@ -18398,7 +17412,7 @@
             <v>1024</v>
           </cell>
           <cell r="V20">
-            <v>400000</v>
+            <v>800000</v>
           </cell>
         </row>
         <row r="21">
@@ -18406,7 +17420,7 @@
             <v>1</v>
           </cell>
           <cell r="V21">
-            <v>10000</v>
+            <v>20000</v>
           </cell>
         </row>
         <row r="22">
@@ -18414,7 +17428,7 @@
             <v>2</v>
           </cell>
           <cell r="V22">
-            <v>22222.2</v>
+            <v>44444.4</v>
           </cell>
         </row>
         <row r="23">
@@ -18422,7 +17436,7 @@
             <v>3</v>
           </cell>
           <cell r="V23">
-            <v>33333.3</v>
+            <v>66666.6</v>
           </cell>
         </row>
         <row r="24">
@@ -18430,7 +17444,7 @@
             <v>4</v>
           </cell>
           <cell r="V24">
-            <v>40000</v>
+            <v>80000</v>
           </cell>
         </row>
         <row r="25">
@@ -18438,7 +17452,7 @@
             <v>7</v>
           </cell>
           <cell r="V25">
-            <v>77777.8</v>
+            <v>155555.6</v>
           </cell>
         </row>
         <row r="26">
@@ -18446,7 +17460,7 @@
             <v>8</v>
           </cell>
           <cell r="V26">
-            <v>57142.9</v>
+            <v>114285.8</v>
           </cell>
         </row>
         <row r="27">
@@ -18454,7 +17468,7 @@
             <v>15</v>
           </cell>
           <cell r="V27">
-            <v>150000</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="28">
@@ -18462,7 +17476,7 @@
             <v>16</v>
           </cell>
           <cell r="V28">
-            <v>145455</v>
+            <v>290910</v>
           </cell>
         </row>
         <row r="29">
@@ -18470,7 +17484,7 @@
             <v>31</v>
           </cell>
           <cell r="V29">
-            <v>193750</v>
+            <v>387500</v>
           </cell>
         </row>
         <row r="30">
@@ -18478,7 +17492,7 @@
             <v>32</v>
           </cell>
           <cell r="V30">
-            <v>188235</v>
+            <v>376470</v>
           </cell>
         </row>
         <row r="31">
@@ -18486,7 +17500,7 @@
             <v>63</v>
           </cell>
           <cell r="V31">
-            <v>262500</v>
+            <v>525000</v>
           </cell>
         </row>
         <row r="32">
@@ -18494,7 +17508,7 @@
             <v>64</v>
           </cell>
           <cell r="V32">
-            <v>213333</v>
+            <v>426666</v>
           </cell>
         </row>
         <row r="33">
@@ -18502,7 +17516,7 @@
             <v>127</v>
           </cell>
           <cell r="V33">
-            <v>317500</v>
+            <v>635000</v>
           </cell>
         </row>
         <row r="34">
@@ -18510,7 +17524,7 @@
             <v>128</v>
           </cell>
           <cell r="V34">
-            <v>304762</v>
+            <v>609524</v>
           </cell>
         </row>
         <row r="35">
@@ -18518,7 +17532,7 @@
             <v>255</v>
           </cell>
           <cell r="V35">
-            <v>340000</v>
+            <v>680000</v>
           </cell>
         </row>
         <row r="36">
@@ -18526,7 +17540,7 @@
             <v>256</v>
           </cell>
           <cell r="V36">
-            <v>332468</v>
+            <v>664936</v>
           </cell>
         </row>
         <row r="37">
@@ -18534,7 +17548,7 @@
             <v>511</v>
           </cell>
           <cell r="V37">
-            <v>384211</v>
+            <v>768422</v>
           </cell>
         </row>
         <row r="38">
@@ -18542,7 +17556,7 @@
             <v>512</v>
           </cell>
           <cell r="V38">
-            <v>390840</v>
+            <v>781680</v>
           </cell>
         </row>
         <row r="39">
@@ -18550,7 +17564,7 @@
             <v>1023</v>
           </cell>
           <cell r="V39">
-            <v>415854</v>
+            <v>831708</v>
           </cell>
         </row>
         <row r="40">
@@ -18558,7 +17572,7 @@
             <v>1024</v>
           </cell>
           <cell r="V40">
-            <v>407968</v>
+            <v>815936</v>
           </cell>
         </row>
         <row r="41">
@@ -18566,7 +17580,7 @@
             <v>1</v>
           </cell>
           <cell r="V41">
-            <v>11111.1</v>
+            <v>22222.2</v>
           </cell>
         </row>
         <row r="42">
@@ -18574,7 +17588,7 @@
             <v>2</v>
           </cell>
           <cell r="V42">
-            <v>22222.2</v>
+            <v>44444.4</v>
           </cell>
         </row>
         <row r="43">
@@ -18582,7 +17596,7 @@
             <v>3</v>
           </cell>
           <cell r="V43">
-            <v>33333.3</v>
+            <v>66666.6</v>
           </cell>
         </row>
         <row r="44">
@@ -18590,7 +17604,7 @@
             <v>4</v>
           </cell>
           <cell r="V44">
-            <v>40000</v>
+            <v>80000</v>
           </cell>
         </row>
         <row r="45">
@@ -18598,7 +17612,7 @@
             <v>7</v>
           </cell>
           <cell r="V45">
-            <v>77777.8</v>
+            <v>155555.6</v>
           </cell>
         </row>
         <row r="46">
@@ -18606,7 +17620,7 @@
             <v>8</v>
           </cell>
           <cell r="V46">
-            <v>72727.3</v>
+            <v>145454.6</v>
           </cell>
         </row>
         <row r="47">
@@ -18614,7 +17628,7 @@
             <v>15</v>
           </cell>
           <cell r="V47">
-            <v>136364</v>
+            <v>272728</v>
           </cell>
         </row>
         <row r="48">
@@ -18622,7 +17636,7 @@
             <v>16</v>
           </cell>
           <cell r="V48">
-            <v>133333</v>
+            <v>266666</v>
           </cell>
         </row>
         <row r="49">
@@ -18630,7 +17644,7 @@
             <v>31</v>
           </cell>
           <cell r="V49">
-            <v>182353</v>
+            <v>364706</v>
           </cell>
         </row>
         <row r="50">
@@ -18638,7 +17652,7 @@
             <v>32</v>
           </cell>
           <cell r="V50">
-            <v>168421</v>
+            <v>336842</v>
           </cell>
         </row>
         <row r="51">
@@ -18646,7 +17660,7 @@
             <v>63</v>
           </cell>
           <cell r="V51">
-            <v>252000</v>
+            <v>504000</v>
           </cell>
         </row>
         <row r="52">
@@ -18654,7 +17668,7 @@
             <v>64</v>
           </cell>
           <cell r="V52">
-            <v>246154</v>
+            <v>492308</v>
           </cell>
         </row>
         <row r="53">
@@ -18662,7 +17676,7 @@
             <v>127</v>
           </cell>
           <cell r="V53">
-            <v>309756</v>
+            <v>619512</v>
           </cell>
         </row>
         <row r="54">
@@ -18670,7 +17684,7 @@
             <v>128</v>
           </cell>
           <cell r="V54">
-            <v>297674</v>
+            <v>595348</v>
           </cell>
         </row>
         <row r="55">
@@ -18678,7 +17692,7 @@
             <v>255</v>
           </cell>
           <cell r="V55">
-            <v>364286</v>
+            <v>728572</v>
           </cell>
         </row>
         <row r="56">
@@ -18686,7 +17700,7 @@
             <v>256</v>
           </cell>
           <cell r="V56">
-            <v>371014</v>
+            <v>742028</v>
           </cell>
         </row>
         <row r="57">
@@ -18694,7 +17708,7 @@
             <v>511</v>
           </cell>
           <cell r="V57">
-            <v>408800</v>
+            <v>817600</v>
           </cell>
         </row>
         <row r="58">
@@ -18702,7 +17716,7 @@
             <v>512</v>
           </cell>
           <cell r="V58">
-            <v>403150</v>
+            <v>806300</v>
           </cell>
         </row>
         <row r="59">
@@ -18710,7 +17724,7 @@
             <v>1023</v>
           </cell>
           <cell r="V59">
-            <v>419262</v>
+            <v>838524</v>
           </cell>
         </row>
         <row r="60">
@@ -18718,7 +17732,7 @@
             <v>1024</v>
           </cell>
           <cell r="V60">
-            <v>412903</v>
+            <v>825806</v>
           </cell>
         </row>
         <row r="61">
@@ -18726,7 +17740,7 @@
             <v>1</v>
           </cell>
           <cell r="V61">
-            <v>9090.91</v>
+            <v>18181.82</v>
           </cell>
         </row>
         <row r="62">
@@ -18734,7 +17748,7 @@
             <v>2</v>
           </cell>
           <cell r="V62">
-            <v>18181.8</v>
+            <v>36363.6</v>
           </cell>
         </row>
         <row r="63">
@@ -18742,7 +17756,7 @@
             <v>3</v>
           </cell>
           <cell r="V63">
-            <v>30000</v>
+            <v>60000</v>
           </cell>
         </row>
         <row r="64">
@@ -18750,7 +17764,7 @@
             <v>4</v>
           </cell>
           <cell r="V64">
-            <v>40000</v>
+            <v>80000</v>
           </cell>
         </row>
         <row r="65">
@@ -18758,7 +17772,7 @@
             <v>7</v>
           </cell>
           <cell r="V65">
-            <v>63636.4</v>
+            <v>127272.8</v>
           </cell>
         </row>
         <row r="66">
@@ -18766,7 +17780,7 @@
             <v>8</v>
           </cell>
           <cell r="V66">
-            <v>72727.3</v>
+            <v>145454.6</v>
           </cell>
         </row>
         <row r="67">
@@ -18774,7 +17788,7 @@
             <v>15</v>
           </cell>
           <cell r="V67">
-            <v>125000</v>
+            <v>250000</v>
           </cell>
         </row>
         <row r="68">
@@ -18782,7 +17796,7 @@
             <v>16</v>
           </cell>
           <cell r="V68">
-            <v>123077</v>
+            <v>246154</v>
           </cell>
         </row>
         <row r="69">
@@ -18790,7 +17804,7 @@
             <v>31</v>
           </cell>
           <cell r="V69">
-            <v>193750</v>
+            <v>387500</v>
           </cell>
         </row>
         <row r="70">
@@ -18798,7 +17812,7 @@
             <v>32</v>
           </cell>
           <cell r="V70">
-            <v>188235</v>
+            <v>376470</v>
           </cell>
         </row>
         <row r="71">
@@ -18806,7 +17820,7 @@
             <v>63</v>
           </cell>
           <cell r="V71">
-            <v>273913</v>
+            <v>547826</v>
           </cell>
         </row>
         <row r="72">
@@ -18814,7 +17828,7 @@
             <v>64</v>
           </cell>
           <cell r="V72">
-            <v>237037</v>
+            <v>474074</v>
           </cell>
         </row>
         <row r="73">
@@ -18822,7 +17836,7 @@
             <v>127</v>
           </cell>
           <cell r="V73">
-            <v>325641</v>
+            <v>651282</v>
           </cell>
         </row>
         <row r="74">
@@ -18830,7 +17844,7 @@
             <v>128</v>
           </cell>
           <cell r="V74">
-            <v>297674</v>
+            <v>595348</v>
           </cell>
         </row>
         <row r="75">
@@ -18838,7 +17852,7 @@
             <v>255</v>
           </cell>
           <cell r="V75">
-            <v>404762</v>
+            <v>809524</v>
           </cell>
         </row>
         <row r="76">
@@ -18846,7 +17860,7 @@
             <v>256</v>
           </cell>
           <cell r="V76">
-            <v>345946</v>
+            <v>691892</v>
           </cell>
         </row>
         <row r="77">
@@ -18854,7 +17868,7 @@
             <v>511</v>
           </cell>
           <cell r="V77">
-            <v>399219</v>
+            <v>798438</v>
           </cell>
         </row>
         <row r="78">
@@ -18862,7 +17876,7 @@
             <v>512</v>
           </cell>
           <cell r="V78">
-            <v>409600</v>
+            <v>819200</v>
           </cell>
         </row>
         <row r="79">
@@ -18870,7 +17884,7 @@
             <v>1023</v>
           </cell>
           <cell r="V79">
-            <v>440948</v>
+            <v>881896</v>
           </cell>
         </row>
         <row r="80">
@@ -18878,7 +17892,7 @@
             <v>1024</v>
           </cell>
           <cell r="V80">
-            <v>417959</v>
+            <v>835918</v>
           </cell>
         </row>
         <row r="81">
@@ -18886,7 +17900,7 @@
             <v>1</v>
           </cell>
           <cell r="V81">
-            <v>10000</v>
+            <v>20000</v>
           </cell>
         </row>
         <row r="82">
@@ -18894,7 +17908,7 @@
             <v>2</v>
           </cell>
           <cell r="V82">
-            <v>20000</v>
+            <v>40000</v>
           </cell>
         </row>
         <row r="83">
@@ -18902,7 +17916,7 @@
             <v>3</v>
           </cell>
           <cell r="V83">
-            <v>33333.3</v>
+            <v>66666.6</v>
           </cell>
         </row>
         <row r="84">
@@ -18910,7 +17924,7 @@
             <v>4</v>
           </cell>
           <cell r="V84">
-            <v>44444.4</v>
+            <v>88888.8</v>
           </cell>
         </row>
         <row r="85">
@@ -18918,7 +17932,7 @@
             <v>7</v>
           </cell>
           <cell r="V85">
-            <v>70000</v>
+            <v>140000</v>
           </cell>
         </row>
         <row r="86">
@@ -18926,7 +17940,7 @@
             <v>8</v>
           </cell>
           <cell r="V86">
-            <v>72727.3</v>
+            <v>145454.6</v>
           </cell>
         </row>
         <row r="87">
@@ -18934,7 +17948,7 @@
             <v>15</v>
           </cell>
           <cell r="V87">
-            <v>150000</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="88">
@@ -18942,7 +17956,7 @@
             <v>16</v>
           </cell>
           <cell r="V88">
-            <v>133333</v>
+            <v>266666</v>
           </cell>
         </row>
         <row r="89">
@@ -18950,7 +17964,7 @@
             <v>31</v>
           </cell>
           <cell r="V89">
-            <v>193750</v>
+            <v>387500</v>
           </cell>
         </row>
         <row r="90">
@@ -18958,7 +17972,7 @@
             <v>32</v>
           </cell>
           <cell r="V90">
-            <v>266667</v>
+            <v>533334</v>
           </cell>
         </row>
         <row r="91">
@@ -18966,7 +17980,7 @@
             <v>63</v>
           </cell>
           <cell r="V91">
-            <v>262500</v>
+            <v>525000</v>
           </cell>
         </row>
         <row r="92">
@@ -18974,7 +17988,7 @@
             <v>64</v>
           </cell>
           <cell r="V92">
-            <v>200000</v>
+            <v>400000</v>
           </cell>
         </row>
         <row r="93">
@@ -18982,7 +17996,7 @@
             <v>127</v>
           </cell>
           <cell r="V93">
-            <v>317500</v>
+            <v>635000</v>
           </cell>
         </row>
         <row r="94">
@@ -18990,7 +18004,7 @@
             <v>128</v>
           </cell>
           <cell r="V94">
-            <v>304762</v>
+            <v>609524</v>
           </cell>
         </row>
         <row r="95">
@@ -18998,7 +18012,7 @@
             <v>255</v>
           </cell>
           <cell r="V95">
-            <v>364286</v>
+            <v>728572</v>
           </cell>
         </row>
         <row r="96">
@@ -19006,7 +18020,7 @@
             <v>256</v>
           </cell>
           <cell r="V96">
-            <v>355556</v>
+            <v>711112</v>
           </cell>
         </row>
         <row r="97">
@@ -19014,7 +18028,7 @@
             <v>511</v>
           </cell>
           <cell r="V97">
-            <v>408800</v>
+            <v>817600</v>
           </cell>
         </row>
         <row r="98">
@@ -19022,7 +18036,7 @@
             <v>512</v>
           </cell>
           <cell r="V98">
-            <v>379259</v>
+            <v>758518</v>
           </cell>
         </row>
         <row r="99">
@@ -19030,7 +18044,7 @@
             <v>1023</v>
           </cell>
           <cell r="V99">
-            <v>404348</v>
+            <v>808696</v>
           </cell>
         </row>
         <row r="100">
@@ -19038,7 +18052,7 @@
             <v>1024</v>
           </cell>
           <cell r="V100">
-            <v>409600</v>
+            <v>819200</v>
           </cell>
         </row>
         <row r="101">
@@ -19046,7 +18060,7 @@
             <v>1</v>
           </cell>
           <cell r="V101">
-            <v>11111.1</v>
+            <v>22222.2</v>
           </cell>
         </row>
         <row r="102">
@@ -19054,7 +18068,7 @@
             <v>2</v>
           </cell>
           <cell r="V102">
-            <v>11764.7</v>
+            <v>23529.4</v>
           </cell>
         </row>
         <row r="103">
@@ -19062,7 +18076,7 @@
             <v>3</v>
           </cell>
           <cell r="V103">
-            <v>30000</v>
+            <v>60000</v>
           </cell>
         </row>
         <row r="104">
@@ -19070,7 +18084,7 @@
             <v>4</v>
           </cell>
           <cell r="V104">
-            <v>44444.4</v>
+            <v>88888.8</v>
           </cell>
         </row>
         <row r="105">
@@ -19078,7 +18092,7 @@
             <v>7</v>
           </cell>
           <cell r="V105">
-            <v>63636.4</v>
+            <v>127272.8</v>
           </cell>
         </row>
         <row r="106">
@@ -19086,7 +18100,7 @@
             <v>8</v>
           </cell>
           <cell r="V106">
-            <v>72727.3</v>
+            <v>145454.6</v>
           </cell>
         </row>
         <row r="107">
@@ -19094,7 +18108,7 @@
             <v>15</v>
           </cell>
           <cell r="V107">
-            <v>107143</v>
+            <v>214286</v>
           </cell>
         </row>
         <row r="108">
@@ -19102,7 +18116,7 @@
             <v>16</v>
           </cell>
           <cell r="V108">
-            <v>123077</v>
+            <v>246154</v>
           </cell>
         </row>
         <row r="109">
@@ -19110,7 +18124,7 @@
             <v>31</v>
           </cell>
           <cell r="V109">
-            <v>182353</v>
+            <v>364706</v>
           </cell>
         </row>
         <row r="110">
@@ -19118,7 +18132,7 @@
             <v>32</v>
           </cell>
           <cell r="V110">
-            <v>133333</v>
+            <v>266666</v>
           </cell>
         </row>
         <row r="111">
@@ -19126,7 +18140,7 @@
             <v>63</v>
           </cell>
           <cell r="V111">
-            <v>273913</v>
+            <v>547826</v>
           </cell>
         </row>
         <row r="112">
@@ -19134,7 +18148,7 @@
             <v>64</v>
           </cell>
           <cell r="V112">
-            <v>206452</v>
+            <v>412904</v>
           </cell>
         </row>
         <row r="113">
@@ -19142,7 +18156,7 @@
             <v>127</v>
           </cell>
           <cell r="V113">
-            <v>343243</v>
+            <v>686486</v>
           </cell>
         </row>
         <row r="114">
@@ -19150,7 +18164,7 @@
             <v>128</v>
           </cell>
           <cell r="V114">
-            <v>278261</v>
+            <v>556522</v>
           </cell>
         </row>
         <row r="115">
@@ -19158,7 +18172,7 @@
             <v>255</v>
           </cell>
           <cell r="V115">
-            <v>392308</v>
+            <v>784616</v>
           </cell>
         </row>
         <row r="116">
@@ -19166,7 +18180,7 @@
             <v>256</v>
           </cell>
           <cell r="V116">
-            <v>355556</v>
+            <v>711112</v>
           </cell>
         </row>
         <row r="117">
@@ -19174,7 +18188,7 @@
             <v>511</v>
           </cell>
           <cell r="V117">
-            <v>387121</v>
+            <v>774242</v>
           </cell>
         </row>
         <row r="118">
@@ -19182,7 +18196,7 @@
             <v>512</v>
           </cell>
           <cell r="V118">
-            <v>416260</v>
+            <v>832520</v>
           </cell>
         </row>
         <row r="119">
@@ -19190,7 +18204,7 @@
             <v>1023</v>
           </cell>
           <cell r="V119">
-            <v>417551</v>
+            <v>835102</v>
           </cell>
         </row>
         <row r="120">
@@ -19198,7 +18212,7 @@
             <v>1024</v>
           </cell>
           <cell r="V120">
-            <v>416260</v>
+            <v>832520</v>
           </cell>
         </row>
         <row r="121">
@@ -19206,7 +18220,7 @@
             <v>1</v>
           </cell>
           <cell r="V121">
-            <v>11111.1</v>
+            <v>22222.2</v>
           </cell>
         </row>
         <row r="122">
@@ -19214,7 +18228,7 @@
             <v>2</v>
           </cell>
           <cell r="V122">
-            <v>18181.8</v>
+            <v>36363.6</v>
           </cell>
         </row>
         <row r="123">
@@ -19222,7 +18236,7 @@
             <v>3</v>
           </cell>
           <cell r="V123">
-            <v>33333.3</v>
+            <v>66666.6</v>
           </cell>
         </row>
         <row r="124">
@@ -19230,7 +18244,7 @@
             <v>4</v>
           </cell>
           <cell r="V124">
-            <v>40000</v>
+            <v>80000</v>
           </cell>
         </row>
         <row r="125">
@@ -19238,7 +18252,7 @@
             <v>7</v>
           </cell>
           <cell r="V125">
-            <v>70000</v>
+            <v>140000</v>
           </cell>
         </row>
         <row r="126">
@@ -19246,7 +18260,7 @@
             <v>8</v>
           </cell>
           <cell r="V126">
-            <v>80000</v>
+            <v>160000</v>
           </cell>
         </row>
         <row r="127">
@@ -19254,7 +18268,7 @@
             <v>15</v>
           </cell>
           <cell r="V127">
-            <v>78947.4</v>
+            <v>157894.8</v>
           </cell>
         </row>
         <row r="128">
@@ -19262,7 +18276,7 @@
             <v>16</v>
           </cell>
           <cell r="V128">
-            <v>133333</v>
+            <v>266666</v>
           </cell>
         </row>
         <row r="129">
@@ -19270,7 +18284,7 @@
             <v>31</v>
           </cell>
           <cell r="V129">
-            <v>163158</v>
+            <v>326316</v>
           </cell>
         </row>
         <row r="130">
@@ -19278,7 +18292,7 @@
             <v>32</v>
           </cell>
           <cell r="V130">
-            <v>200000</v>
+            <v>400000</v>
           </cell>
         </row>
         <row r="131">
@@ -19286,7 +18300,7 @@
             <v>63</v>
           </cell>
           <cell r="V131">
-            <v>252000</v>
+            <v>504000</v>
           </cell>
         </row>
         <row r="132">
@@ -19294,7 +18308,7 @@
             <v>64</v>
           </cell>
           <cell r="V132">
-            <v>237037</v>
+            <v>474074</v>
           </cell>
         </row>
         <row r="133">
@@ -19302,7 +18316,7 @@
             <v>127</v>
           </cell>
           <cell r="V133">
-            <v>309756</v>
+            <v>619512</v>
           </cell>
         </row>
         <row r="134">
@@ -19310,7 +18324,7 @@
             <v>128</v>
           </cell>
           <cell r="V134">
-            <v>272340</v>
+            <v>544680</v>
           </cell>
         </row>
         <row r="135">
@@ -19318,7 +18332,7 @@
             <v>255</v>
           </cell>
           <cell r="V135">
-            <v>392308</v>
+            <v>784616</v>
           </cell>
         </row>
         <row r="136">
@@ -19326,7 +18340,7 @@
             <v>256</v>
           </cell>
           <cell r="V136">
-            <v>312195</v>
+            <v>624390</v>
           </cell>
         </row>
         <row r="137">
@@ -19334,7 +18348,7 @@
             <v>511</v>
           </cell>
           <cell r="V137">
-            <v>408800</v>
+            <v>817600</v>
           </cell>
         </row>
         <row r="138">
@@ -19342,7 +18356,7 @@
             <v>512</v>
           </cell>
           <cell r="V138">
-            <v>368345</v>
+            <v>736690</v>
           </cell>
         </row>
         <row r="139">
@@ -19350,7 +18364,7 @@
             <v>1023</v>
           </cell>
           <cell r="V139">
-            <v>391954</v>
+            <v>783908</v>
           </cell>
         </row>
         <row r="140">
@@ -19358,7 +18372,7 @@
             <v>1024</v>
           </cell>
           <cell r="V140">
-            <v>403150</v>
+            <v>806300</v>
           </cell>
         </row>
         <row r="141">
@@ -19366,7 +18380,7 @@
             <v>1</v>
           </cell>
           <cell r="V141">
-            <v>12500</v>
+            <v>25000</v>
           </cell>
         </row>
         <row r="142">
@@ -19374,7 +18388,7 @@
             <v>2</v>
           </cell>
           <cell r="V142">
-            <v>20000</v>
+            <v>40000</v>
           </cell>
         </row>
         <row r="143">
@@ -19382,7 +18396,7 @@
             <v>3</v>
           </cell>
           <cell r="V143">
-            <v>30000</v>
+            <v>60000</v>
           </cell>
         </row>
         <row r="144">
@@ -19390,7 +18404,7 @@
             <v>4</v>
           </cell>
           <cell r="V144">
-            <v>36363.6</v>
+            <v>72727.2</v>
           </cell>
         </row>
         <row r="145">
@@ -19398,7 +18412,7 @@
             <v>7</v>
           </cell>
           <cell r="V145">
-            <v>70000</v>
+            <v>140000</v>
           </cell>
         </row>
         <row r="146">
@@ -19406,7 +18420,7 @@
             <v>8</v>
           </cell>
           <cell r="V146">
-            <v>53333.3</v>
+            <v>106666.6</v>
           </cell>
         </row>
         <row r="147">
@@ -19414,7 +18428,7 @@
             <v>15</v>
           </cell>
           <cell r="V147">
-            <v>125000</v>
+            <v>250000</v>
           </cell>
         </row>
         <row r="148">
@@ -19422,7 +18436,7 @@
             <v>16</v>
           </cell>
           <cell r="V148">
-            <v>160000</v>
+            <v>320000</v>
           </cell>
         </row>
         <row r="149">
@@ -19430,7 +18444,7 @@
             <v>31</v>
           </cell>
           <cell r="V149">
-            <v>182353</v>
+            <v>364706</v>
           </cell>
         </row>
         <row r="150">
@@ -19438,7 +18452,7 @@
             <v>32</v>
           </cell>
           <cell r="V150">
-            <v>188235</v>
+            <v>376470</v>
           </cell>
         </row>
         <row r="151">
@@ -19446,7 +18460,7 @@
             <v>63</v>
           </cell>
           <cell r="V151">
-            <v>252000</v>
+            <v>504000</v>
           </cell>
         </row>
         <row r="152">
@@ -19454,7 +18468,7 @@
             <v>64</v>
           </cell>
           <cell r="V152">
-            <v>246154</v>
+            <v>492308</v>
           </cell>
         </row>
         <row r="153">
@@ -19462,7 +18476,7 @@
             <v>127</v>
           </cell>
           <cell r="V153">
-            <v>317500</v>
+            <v>635000</v>
           </cell>
         </row>
         <row r="154">
@@ -19470,7 +18484,7 @@
             <v>128</v>
           </cell>
           <cell r="V154">
-            <v>304762</v>
+            <v>609524</v>
           </cell>
         </row>
         <row r="155">
@@ -19478,7 +18492,7 @@
             <v>255</v>
           </cell>
           <cell r="V155">
-            <v>375000</v>
+            <v>750000</v>
           </cell>
         </row>
         <row r="156">
@@ -19486,7 +18500,7 @@
             <v>256</v>
           </cell>
           <cell r="V156">
-            <v>355556</v>
+            <v>711112</v>
           </cell>
         </row>
         <row r="157">
@@ -19494,7 +18508,7 @@
             <v>511</v>
           </cell>
           <cell r="V157">
-            <v>381343</v>
+            <v>762686</v>
           </cell>
         </row>
         <row r="158">
@@ -19502,7 +18516,7 @@
             <v>512</v>
           </cell>
           <cell r="V158">
-            <v>384962</v>
+            <v>769924</v>
           </cell>
         </row>
         <row r="159">
@@ -19510,7 +18524,7 @@
             <v>1023</v>
           </cell>
           <cell r="V159">
-            <v>422727</v>
+            <v>845454</v>
           </cell>
         </row>
         <row r="160">
@@ -19518,7 +18532,7 @@
             <v>1024</v>
           </cell>
           <cell r="V160">
-            <v>412903</v>
+            <v>825806</v>
           </cell>
         </row>
         <row r="161">
@@ -19526,7 +18540,7 @@
             <v>1</v>
           </cell>
           <cell r="V161">
-            <v>11111.1</v>
+            <v>22222.2</v>
           </cell>
         </row>
         <row r="162">
@@ -19534,7 +18548,7 @@
             <v>2</v>
           </cell>
           <cell r="V162">
-            <v>20000</v>
+            <v>40000</v>
           </cell>
         </row>
         <row r="163">
@@ -19542,7 +18556,7 @@
             <v>3</v>
           </cell>
           <cell r="V163">
-            <v>27272.7</v>
+            <v>54545.4</v>
           </cell>
         </row>
         <row r="164">
@@ -19550,7 +18564,7 @@
             <v>4</v>
           </cell>
           <cell r="V164">
-            <v>36363.6</v>
+            <v>72727.2</v>
           </cell>
         </row>
         <row r="165">
@@ -19558,7 +18572,7 @@
             <v>7</v>
           </cell>
           <cell r="V165">
-            <v>70000</v>
+            <v>140000</v>
           </cell>
         </row>
         <row r="166">
@@ -19566,7 +18580,7 @@
             <v>8</v>
           </cell>
           <cell r="V166">
-            <v>72727.3</v>
+            <v>145454.6</v>
           </cell>
         </row>
         <row r="167">
@@ -19574,7 +18588,7 @@
             <v>15</v>
           </cell>
           <cell r="V167">
-            <v>100000</v>
+            <v>200000</v>
           </cell>
         </row>
         <row r="168">
@@ -19582,7 +18596,7 @@
             <v>16</v>
           </cell>
           <cell r="V168">
-            <v>133333</v>
+            <v>266666</v>
           </cell>
         </row>
         <row r="169">
@@ -19590,7 +18604,7 @@
             <v>31</v>
           </cell>
           <cell r="V169">
-            <v>193750</v>
+            <v>387500</v>
           </cell>
         </row>
         <row r="170">
@@ -19598,7 +18612,7 @@
             <v>32</v>
           </cell>
           <cell r="V170">
-            <v>200000</v>
+            <v>400000</v>
           </cell>
         </row>
         <row r="171">
@@ -19606,7 +18620,7 @@
             <v>63</v>
           </cell>
           <cell r="V171">
-            <v>262500</v>
+            <v>525000</v>
           </cell>
         </row>
         <row r="172">
@@ -19614,7 +18628,7 @@
             <v>64</v>
           </cell>
           <cell r="V172">
-            <v>237037</v>
+            <v>474074</v>
           </cell>
         </row>
         <row r="173">
@@ -19622,7 +18636,7 @@
             <v>127</v>
           </cell>
           <cell r="V173">
-            <v>302381</v>
+            <v>604762</v>
           </cell>
         </row>
         <row r="174">
@@ -19630,7 +18644,7 @@
             <v>128</v>
           </cell>
           <cell r="V174">
-            <v>261224</v>
+            <v>522448</v>
           </cell>
         </row>
         <row r="175">
@@ -19638,7 +18652,7 @@
             <v>255</v>
           </cell>
           <cell r="V175">
-            <v>354167</v>
+            <v>708334</v>
           </cell>
         </row>
         <row r="176">
@@ -19646,7 +18660,7 @@
             <v>256</v>
           </cell>
           <cell r="V176">
-            <v>320000</v>
+            <v>640000</v>
           </cell>
         </row>
         <row r="177">
@@ -19654,7 +18668,7 @@
             <v>511</v>
           </cell>
           <cell r="V177">
-            <v>436752</v>
+            <v>873504</v>
           </cell>
         </row>
         <row r="178">
@@ -19662,7 +18676,7 @@
             <v>512</v>
           </cell>
           <cell r="V178">
-            <v>390840</v>
+            <v>781680</v>
           </cell>
         </row>
         <row r="179">
@@ -19670,7 +18684,7 @@
             <v>1023</v>
           </cell>
           <cell r="V179">
-            <v>402756</v>
+            <v>805512</v>
           </cell>
         </row>
         <row r="180">
@@ -19678,7 +18692,7 @@
             <v>1024</v>
           </cell>
           <cell r="V180">
-            <v>395367</v>
+            <v>790734</v>
           </cell>
         </row>
         <row r="181">
@@ -19686,7 +18700,7 @@
             <v>1</v>
           </cell>
           <cell r="V181">
-            <v>11111.1</v>
+            <v>22222.2</v>
           </cell>
         </row>
         <row r="182">
@@ -19694,7 +18708,7 @@
             <v>2</v>
           </cell>
           <cell r="V182">
-            <v>16666.7</v>
+            <v>33333.4</v>
           </cell>
         </row>
         <row r="183">
@@ -19702,7 +18716,7 @@
             <v>3</v>
           </cell>
           <cell r="V183">
-            <v>30000</v>
+            <v>60000</v>
           </cell>
         </row>
         <row r="184">
@@ -19710,7 +18724,7 @@
             <v>4</v>
           </cell>
           <cell r="V184">
-            <v>36363.6</v>
+            <v>72727.2</v>
           </cell>
         </row>
         <row r="185">
@@ -19718,7 +18732,7 @@
             <v>7</v>
           </cell>
           <cell r="V185">
-            <v>70000</v>
+            <v>140000</v>
           </cell>
         </row>
         <row r="186">
@@ -19726,7 +18740,7 @@
             <v>8</v>
           </cell>
           <cell r="V186">
-            <v>72727.3</v>
+            <v>145454.6</v>
           </cell>
         </row>
         <row r="187">
@@ -19734,7 +18748,7 @@
             <v>15</v>
           </cell>
           <cell r="V187">
-            <v>150000</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="188">
@@ -19742,7 +18756,7 @@
             <v>16</v>
           </cell>
           <cell r="V188">
-            <v>145455</v>
+            <v>290910</v>
           </cell>
         </row>
         <row r="189">
@@ -19750,7 +18764,7 @@
             <v>31</v>
           </cell>
           <cell r="V189">
-            <v>182353</v>
+            <v>364706</v>
           </cell>
         </row>
         <row r="190">
@@ -19758,7 +18772,7 @@
             <v>32</v>
           </cell>
           <cell r="V190">
-            <v>188235</v>
+            <v>376470</v>
           </cell>
         </row>
         <row r="191">
@@ -19766,7 +18780,7 @@
             <v>63</v>
           </cell>
           <cell r="V191">
-            <v>196875</v>
+            <v>393750</v>
           </cell>
         </row>
         <row r="192">
@@ -19774,7 +18788,7 @@
             <v>64</v>
           </cell>
           <cell r="V192">
-            <v>237037</v>
+            <v>474074</v>
           </cell>
         </row>
         <row r="193">
@@ -19782,7 +18796,7 @@
             <v>127</v>
           </cell>
           <cell r="V193">
-            <v>325641</v>
+            <v>651282</v>
           </cell>
         </row>
         <row r="194">
@@ -19790,7 +18804,7 @@
             <v>128</v>
           </cell>
           <cell r="V194">
-            <v>336842</v>
+            <v>673684</v>
           </cell>
         </row>
         <row r="195">
@@ -19798,7 +18812,7 @@
             <v>255</v>
           </cell>
           <cell r="V195">
-            <v>344595</v>
+            <v>689190</v>
           </cell>
         </row>
         <row r="196">
@@ -19806,7 +18820,7 @@
             <v>256</v>
           </cell>
           <cell r="V196">
-            <v>387879</v>
+            <v>775758</v>
           </cell>
         </row>
         <row r="197">
@@ -19814,7 +18828,7 @@
             <v>511</v>
           </cell>
           <cell r="V197">
-            <v>405556</v>
+            <v>811112</v>
           </cell>
         </row>
         <row r="198">
@@ -19822,7 +18836,7 @@
             <v>512</v>
           </cell>
           <cell r="V198">
-            <v>382090</v>
+            <v>764180</v>
           </cell>
         </row>
         <row r="199">
@@ -19830,7 +18844,7 @@
             <v>1023</v>
           </cell>
           <cell r="V199">
-            <v>437179</v>
+            <v>874358</v>
           </cell>
         </row>
         <row r="200">
@@ -19838,7 +18852,7 @@
             <v>1024</v>
           </cell>
           <cell r="V200">
-            <v>426667</v>
+            <v>853334</v>
           </cell>
         </row>
       </sheetData>
@@ -20108,7 +19122,7 @@
   <dimension ref="A1:D602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.54545454545455" defaultRowHeight="18" outlineLevelCol="3"/>

--- a/Tests/res_out_good.xlsx
+++ b/Tests/res_out_good.xlsx
@@ -8,10 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="res_out_good" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,11 +31,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -42,25 +44,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,68 +66,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +88,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -164,14 +112,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -185,6 +140,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -195,13 +203,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,13 +239,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,97 +299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,31 +311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +329,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,41 +397,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,11 +423,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,15 +435,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,158 +453,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9456,604 +9473,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="270"/>
                 <c:pt idx="0">
-                  <c:v>29319.5</c:v>
+                  <c:v>28839.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58078.8</c:v>
+                  <c:v>59352.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85394.7</c:v>
+                  <c:v>83542.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109200</c:v>
+                  <c:v>108778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181955</c:v>
+                  <c:v>182539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208366</c:v>
+                  <c:v>208404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>219912</c:v>
+                  <c:v>220913</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>235360</c:v>
+                  <c:v>235111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>387389</c:v>
+                  <c:v>387762</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400205</c:v>
+                  <c:v>400471</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>520549</c:v>
+                  <c:v>520528</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>422964</c:v>
+                  <c:v>423171</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>653571</c:v>
+                  <c:v>650902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>571822</c:v>
+                  <c:v>572484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>751773</c:v>
+                  <c:v>752237</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>684543</c:v>
+                  <c:v>684443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>791307</c:v>
+                  <c:v>792225</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>788063</c:v>
+                  <c:v>787548</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>810010</c:v>
+                  <c:v>811116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>814026</c:v>
+                  <c:v>813963</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29385.8</c:v>
+                  <c:v>29753</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>57873.7</c:v>
+                  <c:v>58307.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83222.4</c:v>
+                  <c:v>83393.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>109278</c:v>
+                  <c:v>109430</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>181927</c:v>
+                  <c:v>182834</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>208035</c:v>
+                  <c:v>208328</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>220627</c:v>
+                  <c:v>220829</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>235433</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>387616</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>400140</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>520790</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>423278</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>651817</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>571827</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>752250</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>682537</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>792150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>787478</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>810553</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>814001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29391</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>58056.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>82820.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109233</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>181131</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>202650</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>219192</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235135</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>387956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>398159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>520347</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>422942</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>652467</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>572134</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>752053</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>683768</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>792386</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>787645</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>810844</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>814052</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29237.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>57865.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>83451.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>109391</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>175751</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>201147</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>220682</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>235353</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>387665</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>400110</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>520468</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>424533</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>653242</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>570901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>752037</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>685384</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>792652</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>787654</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>810703</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>813942</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29492.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>58344.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83114</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>109215</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>182667</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>208529</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>219427</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>235211</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>387040</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>400155</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>521100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>424420</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>652423</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>568970</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>751909</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>686022</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>792446</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>787841</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>810804</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>813926</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>29348.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>59229.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>85130.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>109072</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>182254</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>208883</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>219684</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>235218</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>387791</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>400325</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>520657</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>422010</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>650158</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>571834</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>752053</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>683936</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>792052</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>787735</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>810762</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>814100</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>29322.9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>59192.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>82882.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>109230</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>181418</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>209046</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>220465</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>235156</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>387728</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>399975</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>521066</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>424175</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>653215</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>571988</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>752106</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>685115</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>791372</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>788199</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>810372</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>813978</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29157.1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>57818.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>83280.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>109358</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>182734</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="128">
+                  <c:v>387946</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>400360</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>520369</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>422880</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>653037</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>572469</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>752323</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>683764</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>791926</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>787801</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>810298</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>813714</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>29497.7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>58348.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>84779.3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>109233</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>175986</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>201157</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>220900</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>235589</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>387534</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>400300</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>520588</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>423922</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>653400</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>571740</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>751689</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>684924</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>792330</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>787610</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>810330</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>814002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>29716.8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>58163.2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>83402.8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>109239</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>182610</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>201258</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>220501</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>234973</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>387888</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>400285</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>519438</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>424496</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>653158</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>571702</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>752081</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>684150</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>789936</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>787707</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>810558</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>814036</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>29679.8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59497.2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>83282.4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>109290</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>182825</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>207781</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>220653</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>235388</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>387932</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>400305</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>520571</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>423614</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>655690</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>572902</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>751855</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>685495</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>791237</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>787995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>809995</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>813949</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29368.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>58616.6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>83224.7</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>109260</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>180231</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>208572</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>220287</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>235166</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>387563</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>400380</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>520635</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>422741</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>655173</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>573528</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>751955</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>684961</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>791606</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>788046</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>809990</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>813970</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>29419.6</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>58285.2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82955.4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>109182</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>181507</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>201918</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>220216</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>235426</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>387355</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>400140</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>519305</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>424482</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>655105</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>573680</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>752055</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>685954</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>791703</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>787932</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>810037</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>813977</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>29442.1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>58046.7</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>82708.4</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>109236</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>176647</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>202122</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>219690</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>235294</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>387820</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>400310</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>520339</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>424116</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>654541</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>572689</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>752057</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>685807</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>791682</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>787772</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>810089</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>814024</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>29242.3</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>58253</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>82710.7</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>109099</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>175840</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>202250</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>219729</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>235194</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>387757</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>400095</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>520433</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>424783</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>655497</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>572638</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>751858</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>686870</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>791123</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>787875</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>809713</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>813954</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>29525.5</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>58131.1</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>82754.1</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>109105</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>182036</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>200557</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>219893</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>235090</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>387762</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>400410</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>518501</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>425068</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>655589</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>573189</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>751833</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>687738</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>791312</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>787804</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>809952</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>813950</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>29347.9</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>58038.3</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>83160.1</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>109299</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>181847</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>208057</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>220429</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>235384</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>387437</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>400125</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>520803</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>423844</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>655406</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>572563</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>751725</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>685899</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>791511</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>787644</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>810452</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>814018</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>29129</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>59319</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>83444.6</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>109254</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>181993</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>208263</c:v>
-                </c:pt>
                 <c:pt idx="186">
-                  <c:v>220287</c:v>
+                  <c:v>219896</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>235332</c:v>
+                  <c:v>234980</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>387825</c:v>
+                  <c:v>387868</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>400155</c:v>
+                  <c:v>400150</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>520696</c:v>
+                  <c:v>520902</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>425654</c:v>
+                  <c:v>423160</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>654670</c:v>
+                  <c:v>651683</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>571898</c:v>
+                  <c:v>571720</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>751957</c:v>
+                  <c:v>752006</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>685588</c:v>
+                  <c:v>684446</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>791739</c:v>
+                  <c:v>792693</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>788001</c:v>
+                  <c:v>787465</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>810124</c:v>
+                  <c:v>811092</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>814060</c:v>
+                  <c:v>813806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15646,7 +15663,7 @@
             <v>1</v>
           </cell>
           <cell r="B1">
-            <v>29319.5</v>
+            <v>28839.2</v>
           </cell>
         </row>
         <row r="2">
@@ -15654,7 +15671,7 @@
             <v>2</v>
           </cell>
           <cell r="B2">
-            <v>58078.8</v>
+            <v>59352.5</v>
           </cell>
         </row>
         <row r="3">
@@ -15662,7 +15679,7 @@
             <v>3</v>
           </cell>
           <cell r="B3">
-            <v>85394.7</v>
+            <v>83542.2</v>
           </cell>
         </row>
         <row r="4">
@@ -15670,7 +15687,7 @@
             <v>4</v>
           </cell>
           <cell r="B4">
-            <v>109200</v>
+            <v>108778</v>
           </cell>
         </row>
         <row r="5">
@@ -15678,7 +15695,7 @@
             <v>7</v>
           </cell>
           <cell r="B5">
-            <v>181955</v>
+            <v>182539</v>
           </cell>
         </row>
         <row r="6">
@@ -15686,7 +15703,7 @@
             <v>8</v>
           </cell>
           <cell r="B6">
-            <v>208366</v>
+            <v>208404</v>
           </cell>
         </row>
         <row r="7">
@@ -15694,7 +15711,7 @@
             <v>15</v>
           </cell>
           <cell r="B7">
-            <v>219912</v>
+            <v>220913</v>
           </cell>
         </row>
         <row r="8">
@@ -15702,7 +15719,7 @@
             <v>16</v>
           </cell>
           <cell r="B8">
-            <v>235360</v>
+            <v>235111</v>
           </cell>
         </row>
         <row r="9">
@@ -15710,7 +15727,7 @@
             <v>31</v>
           </cell>
           <cell r="B9">
-            <v>387389</v>
+            <v>387762</v>
           </cell>
         </row>
         <row r="10">
@@ -15718,7 +15735,7 @@
             <v>32</v>
           </cell>
           <cell r="B10">
-            <v>400205</v>
+            <v>400471</v>
           </cell>
         </row>
         <row r="11">
@@ -15726,7 +15743,7 @@
             <v>63</v>
           </cell>
           <cell r="B11">
-            <v>520549</v>
+            <v>520528</v>
           </cell>
         </row>
         <row r="12">
@@ -15734,7 +15751,7 @@
             <v>64</v>
           </cell>
           <cell r="B12">
-            <v>422964</v>
+            <v>423171</v>
           </cell>
         </row>
         <row r="13">
@@ -15742,7 +15759,7 @@
             <v>127</v>
           </cell>
           <cell r="B13">
-            <v>653571</v>
+            <v>650902</v>
           </cell>
         </row>
         <row r="14">
@@ -15750,7 +15767,7 @@
             <v>128</v>
           </cell>
           <cell r="B14">
-            <v>571822</v>
+            <v>572484</v>
           </cell>
         </row>
         <row r="15">
@@ -15758,7 +15775,7 @@
             <v>255</v>
           </cell>
           <cell r="B15">
-            <v>751773</v>
+            <v>752237</v>
           </cell>
         </row>
         <row r="16">
@@ -15766,7 +15783,7 @@
             <v>256</v>
           </cell>
           <cell r="B16">
-            <v>684543</v>
+            <v>684443</v>
           </cell>
         </row>
         <row r="17">
@@ -15774,7 +15791,7 @@
             <v>511</v>
           </cell>
           <cell r="B17">
-            <v>791307</v>
+            <v>792225</v>
           </cell>
         </row>
         <row r="18">
@@ -15782,7 +15799,7 @@
             <v>512</v>
           </cell>
           <cell r="B18">
-            <v>788063</v>
+            <v>787548</v>
           </cell>
         </row>
         <row r="19">
@@ -15790,7 +15807,7 @@
             <v>1023</v>
           </cell>
           <cell r="B19">
-            <v>810010</v>
+            <v>811116</v>
           </cell>
         </row>
         <row r="20">
@@ -15798,7 +15815,7 @@
             <v>1024</v>
           </cell>
           <cell r="B20">
-            <v>814026</v>
+            <v>813963</v>
           </cell>
         </row>
         <row r="21">
@@ -15806,7 +15823,7 @@
             <v>1</v>
           </cell>
           <cell r="B21">
-            <v>29385.8</v>
+            <v>29753</v>
           </cell>
         </row>
         <row r="22">
@@ -15814,7 +15831,7 @@
             <v>2</v>
           </cell>
           <cell r="B22">
-            <v>57873.7</v>
+            <v>58307.3</v>
           </cell>
         </row>
         <row r="23">
@@ -15822,7 +15839,7 @@
             <v>3</v>
           </cell>
           <cell r="B23">
-            <v>83222.4</v>
+            <v>83393.6</v>
           </cell>
         </row>
         <row r="24">
@@ -15830,7 +15847,7 @@
             <v>4</v>
           </cell>
           <cell r="B24">
-            <v>109278</v>
+            <v>109430</v>
           </cell>
         </row>
         <row r="25">
@@ -15838,7 +15855,7 @@
             <v>7</v>
           </cell>
           <cell r="B25">
-            <v>181927</v>
+            <v>182834</v>
           </cell>
         </row>
         <row r="26">
@@ -15846,7 +15863,7 @@
             <v>8</v>
           </cell>
           <cell r="B26">
-            <v>208035</v>
+            <v>208328</v>
           </cell>
         </row>
         <row r="27">
@@ -15854,7 +15871,7 @@
             <v>15</v>
           </cell>
           <cell r="B27">
-            <v>220627</v>
+            <v>220829</v>
           </cell>
         </row>
         <row r="28">
@@ -15862,7 +15879,7 @@
             <v>16</v>
           </cell>
           <cell r="B28">
-            <v>235156</v>
+            <v>235433</v>
           </cell>
         </row>
         <row r="29">
@@ -15870,7 +15887,7 @@
             <v>31</v>
           </cell>
           <cell r="B29">
-            <v>387728</v>
+            <v>387616</v>
           </cell>
         </row>
         <row r="30">
@@ -15878,7 +15895,7 @@
             <v>32</v>
           </cell>
           <cell r="B30">
-            <v>399975</v>
+            <v>400140</v>
           </cell>
         </row>
         <row r="31">
@@ -15886,7 +15903,7 @@
             <v>63</v>
           </cell>
           <cell r="B31">
-            <v>521066</v>
+            <v>520790</v>
           </cell>
         </row>
         <row r="32">
@@ -15894,7 +15911,7 @@
             <v>64</v>
           </cell>
           <cell r="B32">
-            <v>424175</v>
+            <v>423278</v>
           </cell>
         </row>
         <row r="33">
@@ -15902,7 +15919,7 @@
             <v>127</v>
           </cell>
           <cell r="B33">
-            <v>653215</v>
+            <v>651817</v>
           </cell>
         </row>
         <row r="34">
@@ -15910,7 +15927,7 @@
             <v>128</v>
           </cell>
           <cell r="B34">
-            <v>571988</v>
+            <v>571827</v>
           </cell>
         </row>
         <row r="35">
@@ -15918,7 +15935,7 @@
             <v>255</v>
           </cell>
           <cell r="B35">
-            <v>752106</v>
+            <v>752250</v>
           </cell>
         </row>
         <row r="36">
@@ -15926,7 +15943,7 @@
             <v>256</v>
           </cell>
           <cell r="B36">
-            <v>685115</v>
+            <v>682537</v>
           </cell>
         </row>
         <row r="37">
@@ -15934,7 +15951,7 @@
             <v>511</v>
           </cell>
           <cell r="B37">
-            <v>791372</v>
+            <v>792150</v>
           </cell>
         </row>
         <row r="38">
@@ -15942,7 +15959,7 @@
             <v>512</v>
           </cell>
           <cell r="B38">
-            <v>788199</v>
+            <v>787478</v>
           </cell>
         </row>
         <row r="39">
@@ -15950,7 +15967,7 @@
             <v>1023</v>
           </cell>
           <cell r="B39">
-            <v>810372</v>
+            <v>810553</v>
           </cell>
         </row>
         <row r="40">
@@ -15958,7 +15975,7 @@
             <v>1024</v>
           </cell>
           <cell r="B40">
-            <v>813978</v>
+            <v>814001</v>
           </cell>
         </row>
         <row r="41">
@@ -15966,7 +15983,7 @@
             <v>1</v>
           </cell>
           <cell r="B41">
-            <v>29157.1</v>
+            <v>29391</v>
           </cell>
         </row>
         <row r="42">
@@ -15974,7 +15991,7 @@
             <v>2</v>
           </cell>
           <cell r="B42">
-            <v>57818.5</v>
+            <v>58056.8</v>
           </cell>
         </row>
         <row r="43">
@@ -15982,7 +15999,7 @@
             <v>3</v>
           </cell>
           <cell r="B43">
-            <v>83280.1</v>
+            <v>82820.3</v>
           </cell>
         </row>
         <row r="44">
@@ -15990,7 +16007,7 @@
             <v>4</v>
           </cell>
           <cell r="B44">
-            <v>109358</v>
+            <v>109233</v>
           </cell>
         </row>
         <row r="45">
@@ -15998,7 +16015,7 @@
             <v>7</v>
           </cell>
           <cell r="B45">
-            <v>182734</v>
+            <v>181131</v>
           </cell>
         </row>
         <row r="46">
@@ -16006,7 +16023,7 @@
             <v>8</v>
           </cell>
           <cell r="B46">
-            <v>207781</v>
+            <v>202650</v>
           </cell>
         </row>
         <row r="47">
@@ -16014,7 +16031,7 @@
             <v>15</v>
           </cell>
           <cell r="B47">
-            <v>220653</v>
+            <v>219192</v>
           </cell>
         </row>
         <row r="48">
@@ -16022,7 +16039,7 @@
             <v>16</v>
           </cell>
           <cell r="B48">
-            <v>235388</v>
+            <v>235135</v>
           </cell>
         </row>
         <row r="49">
@@ -16030,7 +16047,7 @@
             <v>31</v>
           </cell>
           <cell r="B49">
-            <v>387932</v>
+            <v>387956</v>
           </cell>
         </row>
         <row r="50">
@@ -16038,7 +16055,7 @@
             <v>32</v>
           </cell>
           <cell r="B50">
-            <v>400305</v>
+            <v>398159</v>
           </cell>
         </row>
         <row r="51">
@@ -16046,7 +16063,7 @@
             <v>63</v>
           </cell>
           <cell r="B51">
-            <v>520571</v>
+            <v>520347</v>
           </cell>
         </row>
         <row r="52">
@@ -16054,7 +16071,7 @@
             <v>64</v>
           </cell>
           <cell r="B52">
-            <v>423614</v>
+            <v>422942</v>
           </cell>
         </row>
         <row r="53">
@@ -16062,7 +16079,7 @@
             <v>127</v>
           </cell>
           <cell r="B53">
-            <v>655690</v>
+            <v>652467</v>
           </cell>
         </row>
         <row r="54">
@@ -16070,7 +16087,7 @@
             <v>128</v>
           </cell>
           <cell r="B54">
-            <v>572902</v>
+            <v>572134</v>
           </cell>
         </row>
         <row r="55">
@@ -16078,7 +16095,7 @@
             <v>255</v>
           </cell>
           <cell r="B55">
-            <v>751855</v>
+            <v>752053</v>
           </cell>
         </row>
         <row r="56">
@@ -16086,7 +16103,7 @@
             <v>256</v>
           </cell>
           <cell r="B56">
-            <v>685495</v>
+            <v>683768</v>
           </cell>
         </row>
         <row r="57">
@@ -16094,7 +16111,7 @@
             <v>511</v>
           </cell>
           <cell r="B57">
-            <v>791237</v>
+            <v>792386</v>
           </cell>
         </row>
         <row r="58">
@@ -16102,7 +16119,7 @@
             <v>512</v>
           </cell>
           <cell r="B58">
-            <v>787995</v>
+            <v>787645</v>
           </cell>
         </row>
         <row r="59">
@@ -16110,7 +16127,7 @@
             <v>1023</v>
           </cell>
           <cell r="B59">
-            <v>809995</v>
+            <v>810844</v>
           </cell>
         </row>
         <row r="60">
@@ -16118,7 +16135,7 @@
             <v>1024</v>
           </cell>
           <cell r="B60">
-            <v>813949</v>
+            <v>814052</v>
           </cell>
         </row>
         <row r="61">
@@ -16126,7 +16143,7 @@
             <v>1</v>
           </cell>
           <cell r="B61">
-            <v>29368.6</v>
+            <v>29237.2</v>
           </cell>
         </row>
         <row r="62">
@@ -16134,7 +16151,7 @@
             <v>2</v>
           </cell>
           <cell r="B62">
-            <v>58616.6</v>
+            <v>57865.3</v>
           </cell>
         </row>
         <row r="63">
@@ -16142,7 +16159,7 @@
             <v>3</v>
           </cell>
           <cell r="B63">
-            <v>83224.7</v>
+            <v>83451.6</v>
           </cell>
         </row>
         <row r="64">
@@ -16150,7 +16167,7 @@
             <v>4</v>
           </cell>
           <cell r="B64">
-            <v>109260</v>
+            <v>109391</v>
           </cell>
         </row>
         <row r="65">
@@ -16158,7 +16175,7 @@
             <v>7</v>
           </cell>
           <cell r="B65">
-            <v>180231</v>
+            <v>175751</v>
           </cell>
         </row>
         <row r="66">
@@ -16166,7 +16183,7 @@
             <v>8</v>
           </cell>
           <cell r="B66">
-            <v>208572</v>
+            <v>201147</v>
           </cell>
         </row>
         <row r="67">
@@ -16174,7 +16191,7 @@
             <v>15</v>
           </cell>
           <cell r="B67">
-            <v>220287</v>
+            <v>220682</v>
           </cell>
         </row>
         <row r="68">
@@ -16182,7 +16199,7 @@
             <v>16</v>
           </cell>
           <cell r="B68">
-            <v>235166</v>
+            <v>235353</v>
           </cell>
         </row>
         <row r="69">
@@ -16190,7 +16207,7 @@
             <v>31</v>
           </cell>
           <cell r="B69">
-            <v>387563</v>
+            <v>387665</v>
           </cell>
         </row>
         <row r="70">
@@ -16198,7 +16215,7 @@
             <v>32</v>
           </cell>
           <cell r="B70">
-            <v>400380</v>
+            <v>400110</v>
           </cell>
         </row>
         <row r="71">
@@ -16206,7 +16223,7 @@
             <v>63</v>
           </cell>
           <cell r="B71">
-            <v>520635</v>
+            <v>520468</v>
           </cell>
         </row>
         <row r="72">
@@ -16214,7 +16231,7 @@
             <v>64</v>
           </cell>
           <cell r="B72">
-            <v>422741</v>
+            <v>424533</v>
           </cell>
         </row>
         <row r="73">
@@ -16222,7 +16239,7 @@
             <v>127</v>
           </cell>
           <cell r="B73">
-            <v>655173</v>
+            <v>653242</v>
           </cell>
         </row>
         <row r="74">
@@ -16230,7 +16247,7 @@
             <v>128</v>
           </cell>
           <cell r="B74">
-            <v>573528</v>
+            <v>570901</v>
           </cell>
         </row>
         <row r="75">
@@ -16238,7 +16255,7 @@
             <v>255</v>
           </cell>
           <cell r="B75">
-            <v>751955</v>
+            <v>752037</v>
           </cell>
         </row>
         <row r="76">
@@ -16246,7 +16263,7 @@
             <v>256</v>
           </cell>
           <cell r="B76">
-            <v>684961</v>
+            <v>685384</v>
           </cell>
         </row>
         <row r="77">
@@ -16254,7 +16271,7 @@
             <v>511</v>
           </cell>
           <cell r="B77">
-            <v>791606</v>
+            <v>792652</v>
           </cell>
         </row>
         <row r="78">
@@ -16262,7 +16279,7 @@
             <v>512</v>
           </cell>
           <cell r="B78">
-            <v>788046</v>
+            <v>787654</v>
           </cell>
         </row>
         <row r="79">
@@ -16270,7 +16287,7 @@
             <v>1023</v>
           </cell>
           <cell r="B79">
-            <v>809990</v>
+            <v>810703</v>
           </cell>
         </row>
         <row r="80">
@@ -16278,7 +16295,7 @@
             <v>1024</v>
           </cell>
           <cell r="B80">
-            <v>813970</v>
+            <v>813942</v>
           </cell>
         </row>
         <row r="81">
@@ -16286,7 +16303,7 @@
             <v>1</v>
           </cell>
           <cell r="B81">
-            <v>29419.6</v>
+            <v>29492.4</v>
           </cell>
         </row>
         <row r="82">
@@ -16294,7 +16311,7 @@
             <v>2</v>
           </cell>
           <cell r="B82">
-            <v>58285.2</v>
+            <v>58344.8</v>
           </cell>
         </row>
         <row r="83">
@@ -16302,7 +16319,7 @@
             <v>3</v>
           </cell>
           <cell r="B83">
-            <v>82955.4</v>
+            <v>83114</v>
           </cell>
         </row>
         <row r="84">
@@ -16310,7 +16327,7 @@
             <v>4</v>
           </cell>
           <cell r="B84">
-            <v>109182</v>
+            <v>109215</v>
           </cell>
         </row>
         <row r="85">
@@ -16318,7 +16335,7 @@
             <v>7</v>
           </cell>
           <cell r="B85">
-            <v>181507</v>
+            <v>182667</v>
           </cell>
         </row>
         <row r="86">
@@ -16326,7 +16343,7 @@
             <v>8</v>
           </cell>
           <cell r="B86">
-            <v>201918</v>
+            <v>208529</v>
           </cell>
         </row>
         <row r="87">
@@ -16334,7 +16351,7 @@
             <v>15</v>
           </cell>
           <cell r="B87">
-            <v>220216</v>
+            <v>219427</v>
           </cell>
         </row>
         <row r="88">
@@ -16342,7 +16359,7 @@
             <v>16</v>
           </cell>
           <cell r="B88">
-            <v>235426</v>
+            <v>235211</v>
           </cell>
         </row>
         <row r="89">
@@ -16350,7 +16367,7 @@
             <v>31</v>
           </cell>
           <cell r="B89">
-            <v>387355</v>
+            <v>387040</v>
           </cell>
         </row>
         <row r="90">
@@ -16358,7 +16375,7 @@
             <v>32</v>
           </cell>
           <cell r="B90">
-            <v>400140</v>
+            <v>400155</v>
           </cell>
         </row>
         <row r="91">
@@ -16366,7 +16383,7 @@
             <v>63</v>
           </cell>
           <cell r="B91">
-            <v>519305</v>
+            <v>521100</v>
           </cell>
         </row>
         <row r="92">
@@ -16374,7 +16391,7 @@
             <v>64</v>
           </cell>
           <cell r="B92">
-            <v>424482</v>
+            <v>424420</v>
           </cell>
         </row>
         <row r="93">
@@ -16382,7 +16399,7 @@
             <v>127</v>
           </cell>
           <cell r="B93">
-            <v>655105</v>
+            <v>652423</v>
           </cell>
         </row>
         <row r="94">
@@ -16390,7 +16407,7 @@
             <v>128</v>
           </cell>
           <cell r="B94">
-            <v>573680</v>
+            <v>568970</v>
           </cell>
         </row>
         <row r="95">
@@ -16398,7 +16415,7 @@
             <v>255</v>
           </cell>
           <cell r="B95">
-            <v>752055</v>
+            <v>751909</v>
           </cell>
         </row>
         <row r="96">
@@ -16406,7 +16423,7 @@
             <v>256</v>
           </cell>
           <cell r="B96">
-            <v>685954</v>
+            <v>686022</v>
           </cell>
         </row>
         <row r="97">
@@ -16414,7 +16431,7 @@
             <v>511</v>
           </cell>
           <cell r="B97">
-            <v>791703</v>
+            <v>792446</v>
           </cell>
         </row>
         <row r="98">
@@ -16422,7 +16439,7 @@
             <v>512</v>
           </cell>
           <cell r="B98">
-            <v>787932</v>
+            <v>787841</v>
           </cell>
         </row>
         <row r="99">
@@ -16430,7 +16447,7 @@
             <v>1023</v>
           </cell>
           <cell r="B99">
-            <v>810037</v>
+            <v>810804</v>
           </cell>
         </row>
         <row r="100">
@@ -16438,7 +16455,7 @@
             <v>1024</v>
           </cell>
           <cell r="B100">
-            <v>813977</v>
+            <v>813926</v>
           </cell>
         </row>
         <row r="101">
@@ -16446,7 +16463,7 @@
             <v>1</v>
           </cell>
           <cell r="B101">
-            <v>29442.1</v>
+            <v>29348.8</v>
           </cell>
         </row>
         <row r="102">
@@ -16454,7 +16471,7 @@
             <v>2</v>
           </cell>
           <cell r="B102">
-            <v>58046.7</v>
+            <v>59229.4</v>
           </cell>
         </row>
         <row r="103">
@@ -16462,7 +16479,7 @@
             <v>3</v>
           </cell>
           <cell r="B103">
-            <v>82708.4</v>
+            <v>85130.5</v>
           </cell>
         </row>
         <row r="104">
@@ -16470,7 +16487,7 @@
             <v>4</v>
           </cell>
           <cell r="B104">
-            <v>109236</v>
+            <v>109072</v>
           </cell>
         </row>
         <row r="105">
@@ -16478,7 +16495,7 @@
             <v>7</v>
           </cell>
           <cell r="B105">
-            <v>176647</v>
+            <v>182254</v>
           </cell>
         </row>
         <row r="106">
@@ -16486,7 +16503,7 @@
             <v>8</v>
           </cell>
           <cell r="B106">
-            <v>202122</v>
+            <v>208883</v>
           </cell>
         </row>
         <row r="107">
@@ -16494,7 +16511,7 @@
             <v>15</v>
           </cell>
           <cell r="B107">
-            <v>219690</v>
+            <v>219684</v>
           </cell>
         </row>
         <row r="108">
@@ -16502,7 +16519,7 @@
             <v>16</v>
           </cell>
           <cell r="B108">
-            <v>235294</v>
+            <v>235218</v>
           </cell>
         </row>
         <row r="109">
@@ -16510,7 +16527,7 @@
             <v>31</v>
           </cell>
           <cell r="B109">
-            <v>387820</v>
+            <v>387791</v>
           </cell>
         </row>
         <row r="110">
@@ -16518,7 +16535,7 @@
             <v>32</v>
           </cell>
           <cell r="B110">
-            <v>400310</v>
+            <v>400325</v>
           </cell>
         </row>
         <row r="111">
@@ -16526,7 +16543,7 @@
             <v>63</v>
           </cell>
           <cell r="B111">
-            <v>520339</v>
+            <v>520657</v>
           </cell>
         </row>
         <row r="112">
@@ -16534,7 +16551,7 @@
             <v>64</v>
           </cell>
           <cell r="B112">
-            <v>424116</v>
+            <v>422010</v>
           </cell>
         </row>
         <row r="113">
@@ -16542,7 +16559,7 @@
             <v>127</v>
           </cell>
           <cell r="B113">
-            <v>654541</v>
+            <v>650158</v>
           </cell>
         </row>
         <row r="114">
@@ -16550,7 +16567,7 @@
             <v>128</v>
           </cell>
           <cell r="B114">
-            <v>572689</v>
+            <v>571834</v>
           </cell>
         </row>
         <row r="115">
@@ -16558,7 +16575,7 @@
             <v>255</v>
           </cell>
           <cell r="B115">
-            <v>752057</v>
+            <v>752053</v>
           </cell>
         </row>
         <row r="116">
@@ -16566,7 +16583,7 @@
             <v>256</v>
           </cell>
           <cell r="B116">
-            <v>685807</v>
+            <v>683936</v>
           </cell>
         </row>
         <row r="117">
@@ -16574,7 +16591,7 @@
             <v>511</v>
           </cell>
           <cell r="B117">
-            <v>791682</v>
+            <v>792052</v>
           </cell>
         </row>
         <row r="118">
@@ -16582,7 +16599,7 @@
             <v>512</v>
           </cell>
           <cell r="B118">
-            <v>787772</v>
+            <v>787735</v>
           </cell>
         </row>
         <row r="119">
@@ -16590,7 +16607,7 @@
             <v>1023</v>
           </cell>
           <cell r="B119">
-            <v>810089</v>
+            <v>810762</v>
           </cell>
         </row>
         <row r="120">
@@ -16598,7 +16615,7 @@
             <v>1024</v>
           </cell>
           <cell r="B120">
-            <v>814024</v>
+            <v>814100</v>
           </cell>
         </row>
         <row r="121">
@@ -16606,7 +16623,7 @@
             <v>1</v>
           </cell>
           <cell r="B121">
-            <v>29242.3</v>
+            <v>29322.9</v>
           </cell>
         </row>
         <row r="122">
@@ -16614,7 +16631,7 @@
             <v>2</v>
           </cell>
           <cell r="B122">
-            <v>58253</v>
+            <v>59192.6</v>
           </cell>
         </row>
         <row r="123">
@@ -16622,7 +16639,7 @@
             <v>3</v>
           </cell>
           <cell r="B123">
-            <v>82710.7</v>
+            <v>82882.1</v>
           </cell>
         </row>
         <row r="124">
@@ -16630,7 +16647,7 @@
             <v>4</v>
           </cell>
           <cell r="B124">
-            <v>109099</v>
+            <v>109230</v>
           </cell>
         </row>
         <row r="125">
@@ -16638,7 +16655,7 @@
             <v>7</v>
           </cell>
           <cell r="B125">
-            <v>175840</v>
+            <v>181418</v>
           </cell>
         </row>
         <row r="126">
@@ -16646,7 +16663,7 @@
             <v>8</v>
           </cell>
           <cell r="B126">
-            <v>202250</v>
+            <v>209046</v>
           </cell>
         </row>
         <row r="127">
@@ -16654,7 +16671,7 @@
             <v>15</v>
           </cell>
           <cell r="B127">
-            <v>219729</v>
+            <v>220465</v>
           </cell>
         </row>
         <row r="128">
@@ -16662,7 +16679,7 @@
             <v>16</v>
           </cell>
           <cell r="B128">
-            <v>235194</v>
+            <v>235156</v>
           </cell>
         </row>
         <row r="129">
@@ -16670,7 +16687,7 @@
             <v>31</v>
           </cell>
           <cell r="B129">
-            <v>387757</v>
+            <v>387946</v>
           </cell>
         </row>
         <row r="130">
@@ -16678,7 +16695,7 @@
             <v>32</v>
           </cell>
           <cell r="B130">
-            <v>400095</v>
+            <v>400360</v>
           </cell>
         </row>
         <row r="131">
@@ -16686,7 +16703,7 @@
             <v>63</v>
           </cell>
           <cell r="B131">
-            <v>520433</v>
+            <v>520369</v>
           </cell>
         </row>
         <row r="132">
@@ -16694,7 +16711,7 @@
             <v>64</v>
           </cell>
           <cell r="B132">
-            <v>424783</v>
+            <v>422880</v>
           </cell>
         </row>
         <row r="133">
@@ -16702,7 +16719,7 @@
             <v>127</v>
           </cell>
           <cell r="B133">
-            <v>655497</v>
+            <v>653037</v>
           </cell>
         </row>
         <row r="134">
@@ -16710,7 +16727,7 @@
             <v>128</v>
           </cell>
           <cell r="B134">
-            <v>572638</v>
+            <v>572469</v>
           </cell>
         </row>
         <row r="135">
@@ -16718,7 +16735,7 @@
             <v>255</v>
           </cell>
           <cell r="B135">
-            <v>751858</v>
+            <v>752323</v>
           </cell>
         </row>
         <row r="136">
@@ -16726,7 +16743,7 @@
             <v>256</v>
           </cell>
           <cell r="B136">
-            <v>686870</v>
+            <v>683764</v>
           </cell>
         </row>
         <row r="137">
@@ -16734,7 +16751,7 @@
             <v>511</v>
           </cell>
           <cell r="B137">
-            <v>791123</v>
+            <v>791926</v>
           </cell>
         </row>
         <row r="138">
@@ -16742,7 +16759,7 @@
             <v>512</v>
           </cell>
           <cell r="B138">
-            <v>787875</v>
+            <v>787801</v>
           </cell>
         </row>
         <row r="139">
@@ -16750,7 +16767,7 @@
             <v>1023</v>
           </cell>
           <cell r="B139">
-            <v>809713</v>
+            <v>810298</v>
           </cell>
         </row>
         <row r="140">
@@ -16758,7 +16775,7 @@
             <v>1024</v>
           </cell>
           <cell r="B140">
-            <v>813954</v>
+            <v>813714</v>
           </cell>
         </row>
         <row r="141">
@@ -16766,7 +16783,7 @@
             <v>1</v>
           </cell>
           <cell r="B141">
-            <v>29525.5</v>
+            <v>29497.7</v>
           </cell>
         </row>
         <row r="142">
@@ -16774,7 +16791,7 @@
             <v>2</v>
           </cell>
           <cell r="B142">
-            <v>58131.1</v>
+            <v>58348.2</v>
           </cell>
         </row>
         <row r="143">
@@ -16782,7 +16799,7 @@
             <v>3</v>
           </cell>
           <cell r="B143">
-            <v>82754.1</v>
+            <v>84779.3</v>
           </cell>
         </row>
         <row r="144">
@@ -16790,7 +16807,7 @@
             <v>4</v>
           </cell>
           <cell r="B144">
-            <v>109105</v>
+            <v>109233</v>
           </cell>
         </row>
         <row r="145">
@@ -16798,7 +16815,7 @@
             <v>7</v>
           </cell>
           <cell r="B145">
-            <v>182036</v>
+            <v>175986</v>
           </cell>
         </row>
         <row r="146">
@@ -16806,7 +16823,7 @@
             <v>8</v>
           </cell>
           <cell r="B146">
-            <v>200557</v>
+            <v>201157</v>
           </cell>
         </row>
         <row r="147">
@@ -16814,7 +16831,7 @@
             <v>15</v>
           </cell>
           <cell r="B147">
-            <v>219893</v>
+            <v>220900</v>
           </cell>
         </row>
         <row r="148">
@@ -16822,7 +16839,7 @@
             <v>16</v>
           </cell>
           <cell r="B148">
-            <v>235090</v>
+            <v>235589</v>
           </cell>
         </row>
         <row r="149">
@@ -16830,7 +16847,7 @@
             <v>31</v>
           </cell>
           <cell r="B149">
-            <v>387762</v>
+            <v>387534</v>
           </cell>
         </row>
         <row r="150">
@@ -16838,7 +16855,7 @@
             <v>32</v>
           </cell>
           <cell r="B150">
-            <v>400410</v>
+            <v>400300</v>
           </cell>
         </row>
         <row r="151">
@@ -16846,7 +16863,7 @@
             <v>63</v>
           </cell>
           <cell r="B151">
-            <v>518501</v>
+            <v>520588</v>
           </cell>
         </row>
         <row r="152">
@@ -16854,7 +16871,7 @@
             <v>64</v>
           </cell>
           <cell r="B152">
-            <v>425068</v>
+            <v>423922</v>
           </cell>
         </row>
         <row r="153">
@@ -16862,7 +16879,7 @@
             <v>127</v>
           </cell>
           <cell r="B153">
-            <v>655589</v>
+            <v>653400</v>
           </cell>
         </row>
         <row r="154">
@@ -16870,7 +16887,7 @@
             <v>128</v>
           </cell>
           <cell r="B154">
-            <v>573189</v>
+            <v>571740</v>
           </cell>
         </row>
         <row r="155">
@@ -16878,7 +16895,7 @@
             <v>255</v>
           </cell>
           <cell r="B155">
-            <v>751833</v>
+            <v>751689</v>
           </cell>
         </row>
         <row r="156">
@@ -16886,7 +16903,7 @@
             <v>256</v>
           </cell>
           <cell r="B156">
-            <v>687738</v>
+            <v>684924</v>
           </cell>
         </row>
         <row r="157">
@@ -16894,7 +16911,7 @@
             <v>511</v>
           </cell>
           <cell r="B157">
-            <v>791312</v>
+            <v>792330</v>
           </cell>
         </row>
         <row r="158">
@@ -16902,7 +16919,7 @@
             <v>512</v>
           </cell>
           <cell r="B158">
-            <v>787804</v>
+            <v>787610</v>
           </cell>
         </row>
         <row r="159">
@@ -16910,7 +16927,7 @@
             <v>1023</v>
           </cell>
           <cell r="B159">
-            <v>809952</v>
+            <v>810330</v>
           </cell>
         </row>
         <row r="160">
@@ -16918,7 +16935,7 @@
             <v>1024</v>
           </cell>
           <cell r="B160">
-            <v>813950</v>
+            <v>814002</v>
           </cell>
         </row>
         <row r="161">
@@ -16926,7 +16943,7 @@
             <v>1</v>
           </cell>
           <cell r="B161">
-            <v>29347.9</v>
+            <v>29716.8</v>
           </cell>
         </row>
         <row r="162">
@@ -16934,7 +16951,7 @@
             <v>2</v>
           </cell>
           <cell r="B162">
-            <v>58038.3</v>
+            <v>58163.2</v>
           </cell>
         </row>
         <row r="163">
@@ -16942,7 +16959,7 @@
             <v>3</v>
           </cell>
           <cell r="B163">
-            <v>83160.1</v>
+            <v>83402.8</v>
           </cell>
         </row>
         <row r="164">
@@ -16950,7 +16967,7 @@
             <v>4</v>
           </cell>
           <cell r="B164">
-            <v>109299</v>
+            <v>109239</v>
           </cell>
         </row>
         <row r="165">
@@ -16958,7 +16975,7 @@
             <v>7</v>
           </cell>
           <cell r="B165">
-            <v>181847</v>
+            <v>182610</v>
           </cell>
         </row>
         <row r="166">
@@ -16966,7 +16983,7 @@
             <v>8</v>
           </cell>
           <cell r="B166">
-            <v>208057</v>
+            <v>201258</v>
           </cell>
         </row>
         <row r="167">
@@ -16974,7 +16991,7 @@
             <v>15</v>
           </cell>
           <cell r="B167">
-            <v>220429</v>
+            <v>220501</v>
           </cell>
         </row>
         <row r="168">
@@ -16982,7 +16999,7 @@
             <v>16</v>
           </cell>
           <cell r="B168">
-            <v>235384</v>
+            <v>234973</v>
           </cell>
         </row>
         <row r="169">
@@ -16990,7 +17007,7 @@
             <v>31</v>
           </cell>
           <cell r="B169">
-            <v>387437</v>
+            <v>387888</v>
           </cell>
         </row>
         <row r="170">
@@ -16998,7 +17015,7 @@
             <v>32</v>
           </cell>
           <cell r="B170">
-            <v>400125</v>
+            <v>400285</v>
           </cell>
         </row>
         <row r="171">
@@ -17006,7 +17023,7 @@
             <v>63</v>
           </cell>
           <cell r="B171">
-            <v>520803</v>
+            <v>519438</v>
           </cell>
         </row>
         <row r="172">
@@ -17014,7 +17031,7 @@
             <v>64</v>
           </cell>
           <cell r="B172">
-            <v>423844</v>
+            <v>424496</v>
           </cell>
         </row>
         <row r="173">
@@ -17022,7 +17039,7 @@
             <v>127</v>
           </cell>
           <cell r="B173">
-            <v>655406</v>
+            <v>653158</v>
           </cell>
         </row>
         <row r="174">
@@ -17030,7 +17047,7 @@
             <v>128</v>
           </cell>
           <cell r="B174">
-            <v>572563</v>
+            <v>571702</v>
           </cell>
         </row>
         <row r="175">
@@ -17038,7 +17055,7 @@
             <v>255</v>
           </cell>
           <cell r="B175">
-            <v>751725</v>
+            <v>752081</v>
           </cell>
         </row>
         <row r="176">
@@ -17046,7 +17063,7 @@
             <v>256</v>
           </cell>
           <cell r="B176">
-            <v>685899</v>
+            <v>684150</v>
           </cell>
         </row>
         <row r="177">
@@ -17054,7 +17071,7 @@
             <v>511</v>
           </cell>
           <cell r="B177">
-            <v>791511</v>
+            <v>789936</v>
           </cell>
         </row>
         <row r="178">
@@ -17062,7 +17079,7 @@
             <v>512</v>
           </cell>
           <cell r="B178">
-            <v>787644</v>
+            <v>787707</v>
           </cell>
         </row>
         <row r="179">
@@ -17070,7 +17087,7 @@
             <v>1023</v>
           </cell>
           <cell r="B179">
-            <v>810452</v>
+            <v>810558</v>
           </cell>
         </row>
         <row r="180">
@@ -17078,7 +17095,7 @@
             <v>1024</v>
           </cell>
           <cell r="B180">
-            <v>814018</v>
+            <v>814036</v>
           </cell>
         </row>
         <row r="181">
@@ -17086,7 +17103,7 @@
             <v>1</v>
           </cell>
           <cell r="B181">
-            <v>29129</v>
+            <v>29679.8</v>
           </cell>
         </row>
         <row r="182">
@@ -17094,7 +17111,7 @@
             <v>2</v>
           </cell>
           <cell r="B182">
-            <v>59319</v>
+            <v>59497.2</v>
           </cell>
         </row>
         <row r="183">
@@ -17102,7 +17119,7 @@
             <v>3</v>
           </cell>
           <cell r="B183">
-            <v>83444.6</v>
+            <v>83282.4</v>
           </cell>
         </row>
         <row r="184">
@@ -17110,7 +17127,7 @@
             <v>4</v>
           </cell>
           <cell r="B184">
-            <v>109254</v>
+            <v>109290</v>
           </cell>
         </row>
         <row r="185">
@@ -17118,7 +17135,7 @@
             <v>7</v>
           </cell>
           <cell r="B185">
-            <v>181993</v>
+            <v>182825</v>
           </cell>
         </row>
         <row r="186">
@@ -17126,7 +17143,7 @@
             <v>8</v>
           </cell>
           <cell r="B186">
-            <v>208263</v>
+            <v>207781</v>
           </cell>
         </row>
         <row r="187">
@@ -17134,7 +17151,7 @@
             <v>15</v>
           </cell>
           <cell r="B187">
-            <v>220287</v>
+            <v>219896</v>
           </cell>
         </row>
         <row r="188">
@@ -17142,7 +17159,7 @@
             <v>16</v>
           </cell>
           <cell r="B188">
-            <v>235332</v>
+            <v>234980</v>
           </cell>
         </row>
         <row r="189">
@@ -17150,7 +17167,7 @@
             <v>31</v>
           </cell>
           <cell r="B189">
-            <v>387825</v>
+            <v>387868</v>
           </cell>
         </row>
         <row r="190">
@@ -17158,7 +17175,7 @@
             <v>32</v>
           </cell>
           <cell r="B190">
-            <v>400155</v>
+            <v>400150</v>
           </cell>
         </row>
         <row r="191">
@@ -17166,7 +17183,7 @@
             <v>63</v>
           </cell>
           <cell r="B191">
-            <v>520696</v>
+            <v>520902</v>
           </cell>
         </row>
         <row r="192">
@@ -17174,7 +17191,7 @@
             <v>64</v>
           </cell>
           <cell r="B192">
-            <v>425654</v>
+            <v>423160</v>
           </cell>
         </row>
         <row r="193">
@@ -17182,7 +17199,7 @@
             <v>127</v>
           </cell>
           <cell r="B193">
-            <v>654670</v>
+            <v>651683</v>
           </cell>
         </row>
         <row r="194">
@@ -17190,7 +17207,7 @@
             <v>128</v>
           </cell>
           <cell r="B194">
-            <v>571898</v>
+            <v>571720</v>
           </cell>
         </row>
         <row r="195">
@@ -17198,7 +17215,7 @@
             <v>255</v>
           </cell>
           <cell r="B195">
-            <v>751957</v>
+            <v>752006</v>
           </cell>
         </row>
         <row r="196">
@@ -17206,7 +17223,7 @@
             <v>256</v>
           </cell>
           <cell r="B196">
-            <v>685588</v>
+            <v>684446</v>
           </cell>
         </row>
         <row r="197">
@@ -17214,7 +17231,7 @@
             <v>511</v>
           </cell>
           <cell r="B197">
-            <v>791739</v>
+            <v>792693</v>
           </cell>
         </row>
         <row r="198">
@@ -17222,7 +17239,7 @@
             <v>512</v>
           </cell>
           <cell r="B198">
-            <v>788001</v>
+            <v>787465</v>
           </cell>
         </row>
         <row r="199">
@@ -17230,7 +17247,7 @@
             <v>1023</v>
           </cell>
           <cell r="B199">
-            <v>810124</v>
+            <v>811092</v>
           </cell>
         </row>
         <row r="200">
@@ -17238,7 +17255,7 @@
             <v>1024</v>
           </cell>
           <cell r="B200">
-            <v>814060</v>
+            <v>813806</v>
           </cell>
         </row>
       </sheetData>
@@ -19121,8 +19138,8 @@
   <sheetPr/>
   <dimension ref="A1:D602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.54545454545455" defaultRowHeight="18" outlineLevelCol="3"/>
@@ -27392,4 +27409,5238 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="18" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>28839.2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.34675</v>
+      </c>
+      <c r="D1" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>59352.5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.33697</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>83542.2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.3591</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>108778</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.36772</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>182539</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.38348</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>208404</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.38387</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>220913</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.679</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>235111</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.68053</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3">
+        <v>387762</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.79946</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3">
+        <v>400471</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79906</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3">
+        <v>520528</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.21031</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3">
+        <v>423171</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.51239</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3">
+        <v>650902</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.95114</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>128</v>
+      </c>
+      <c r="B14" s="3">
+        <v>572484</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.23587</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>255</v>
+      </c>
+      <c r="B15" s="3">
+        <v>752237</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.38989</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>256</v>
+      </c>
+      <c r="B16" s="3">
+        <v>684443</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.74027</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>511</v>
+      </c>
+      <c r="B17" s="3">
+        <v>792225</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.45019</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>512</v>
+      </c>
+      <c r="B18" s="3">
+        <v>787548</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.50119</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B19" s="3">
+        <v>811116</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12.6123</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B20" s="3">
+        <v>813963</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12.5804</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>29753</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.3361</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>58307.3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.34301</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>83393.6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.35974</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>109430</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.36553</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3">
+        <v>182834</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.38286</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3">
+        <v>208328</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.38401</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
+        <v>220829</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.67926</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3">
+        <v>235433</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.6796</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>387616</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.79976</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
+        <v>400140</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.79972</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3">
+        <v>520790</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.2097</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>423278</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.51201</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>127</v>
+      </c>
+      <c r="B33" s="3">
+        <v>651817</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.9484</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>128</v>
+      </c>
+      <c r="B34" s="3">
+        <v>571827</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.23844</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>255</v>
+      </c>
+      <c r="B35" s="3">
+        <v>752250</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.38983</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>256</v>
+      </c>
+      <c r="B36" s="3">
+        <v>682537</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3.75071</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>511</v>
+      </c>
+      <c r="B37" s="3">
+        <v>792150</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.4508</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>512</v>
+      </c>
+      <c r="B38" s="3">
+        <v>787478</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6.50177</v>
+      </c>
+      <c r="D38" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B39" s="3">
+        <v>810553</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12.621</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B40" s="3">
+        <v>814001</v>
+      </c>
+      <c r="C40" s="3">
+        <v>12.5798</v>
+      </c>
+      <c r="D40" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3">
+        <v>29391</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.34024</v>
+      </c>
+      <c r="D41" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
+        <v>58056.8</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.34449</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>82820.3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.36223</v>
+      </c>
+      <c r="D43" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>109233</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.36619</v>
+      </c>
+      <c r="D44" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3">
+        <v>181131</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.38646</v>
+      </c>
+      <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3">
+        <v>202650</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.39477</v>
+      </c>
+      <c r="D46" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>15</v>
+      </c>
+      <c r="B47" s="3">
+        <v>219192</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.68433</v>
+      </c>
+      <c r="D47" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>16</v>
+      </c>
+      <c r="B48" s="3">
+        <v>235135</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.68046</v>
+      </c>
+      <c r="D48" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>31</v>
+      </c>
+      <c r="B49" s="3">
+        <v>387956</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.79906</v>
+      </c>
+      <c r="D49" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>32</v>
+      </c>
+      <c r="B50" s="3">
+        <v>398159</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.8037</v>
+      </c>
+      <c r="D50" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>63</v>
+      </c>
+      <c r="B51" s="3">
+        <v>520347</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.21073</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>64</v>
+      </c>
+      <c r="B52" s="3">
+        <v>422942</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.51321</v>
+      </c>
+      <c r="D52" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>127</v>
+      </c>
+      <c r="B53" s="3">
+        <v>652467</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.94646</v>
+      </c>
+      <c r="D53" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>128</v>
+      </c>
+      <c r="B54" s="3">
+        <v>572134</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.23724</v>
+      </c>
+      <c r="D54" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>255</v>
+      </c>
+      <c r="B55" s="3">
+        <v>752053</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3.39072</v>
+      </c>
+      <c r="D55" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3">
+        <v>256</v>
+      </c>
+      <c r="B56" s="3">
+        <v>683768</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3.74396</v>
+      </c>
+      <c r="D56" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3">
+        <v>511</v>
+      </c>
+      <c r="B57" s="3">
+        <v>792386</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6.44888</v>
+      </c>
+      <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3">
+        <v>512</v>
+      </c>
+      <c r="B58" s="3">
+        <v>787645</v>
+      </c>
+      <c r="C58" s="3">
+        <v>6.50039</v>
+      </c>
+      <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B59" s="3">
+        <v>810844</v>
+      </c>
+      <c r="C59" s="3">
+        <v>12.6165</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B60" s="3">
+        <v>814052</v>
+      </c>
+      <c r="C60" s="3">
+        <v>12.5791</v>
+      </c>
+      <c r="D60" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3">
+        <v>29237.2</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.34203</v>
+      </c>
+      <c r="D61" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3">
+        <v>57865.3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.34563</v>
+      </c>
+      <c r="D62" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
+        <v>83451.6</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.35949</v>
+      </c>
+      <c r="D63" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <v>109391</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.36566</v>
+      </c>
+      <c r="D64" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3">
+        <v>175751</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.39829</v>
+      </c>
+      <c r="D65" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3">
+        <v>201147</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.39772</v>
+      </c>
+      <c r="D66" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3">
+        <v>15</v>
+      </c>
+      <c r="B67" s="3">
+        <v>220682</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.67971</v>
+      </c>
+      <c r="D67" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3">
+        <v>16</v>
+      </c>
+      <c r="B68" s="3">
+        <v>235353</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.67983</v>
+      </c>
+      <c r="D68" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3">
+        <v>31</v>
+      </c>
+      <c r="B69" s="3">
+        <v>387665</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.79966</v>
+      </c>
+      <c r="D69" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3">
+        <v>32</v>
+      </c>
+      <c r="B70" s="3">
+        <v>400110</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.79978</v>
+      </c>
+      <c r="D70" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3">
+        <v>63</v>
+      </c>
+      <c r="B71" s="3">
+        <v>520468</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1.21045</v>
+      </c>
+      <c r="D71" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3">
+        <v>64</v>
+      </c>
+      <c r="B72" s="3">
+        <v>424533</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1.50754</v>
+      </c>
+      <c r="D72" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3">
+        <v>127</v>
+      </c>
+      <c r="B73" s="3">
+        <v>653242</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1.94415</v>
+      </c>
+      <c r="D73" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3">
+        <v>128</v>
+      </c>
+      <c r="B74" s="3">
+        <v>570901</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2.24207</v>
+      </c>
+      <c r="D74" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3">
+        <v>255</v>
+      </c>
+      <c r="B75" s="3">
+        <v>752037</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3.39079</v>
+      </c>
+      <c r="D75" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3">
+        <v>256</v>
+      </c>
+      <c r="B76" s="3">
+        <v>685384</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3.73513</v>
+      </c>
+      <c r="D76" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3">
+        <v>511</v>
+      </c>
+      <c r="B77" s="3">
+        <v>792652</v>
+      </c>
+      <c r="C77" s="3">
+        <v>6.44671</v>
+      </c>
+      <c r="D77" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3">
+        <v>512</v>
+      </c>
+      <c r="B78" s="3">
+        <v>787654</v>
+      </c>
+      <c r="C78" s="3">
+        <v>6.50032</v>
+      </c>
+      <c r="D78" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B79" s="3">
+        <v>810703</v>
+      </c>
+      <c r="C79" s="3">
+        <v>12.6187</v>
+      </c>
+      <c r="D79" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B80" s="3">
+        <v>813942</v>
+      </c>
+      <c r="C80" s="3">
+        <v>12.5808</v>
+      </c>
+      <c r="D80" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3">
+        <v>1</v>
+      </c>
+      <c r="B81" s="3">
+        <v>29492.4</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.33907</v>
+      </c>
+      <c r="D81" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3">
+        <v>2</v>
+      </c>
+      <c r="B82" s="3">
+        <v>58344.8</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.34279</v>
+      </c>
+      <c r="D82" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3">
+        <v>83114</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.36095</v>
+      </c>
+      <c r="D83" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3">
+        <v>4</v>
+      </c>
+      <c r="B84" s="3">
+        <v>109215</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.36625</v>
+      </c>
+      <c r="D84" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3">
+        <v>7</v>
+      </c>
+      <c r="B85" s="3">
+        <v>182667</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.38321</v>
+      </c>
+      <c r="D85" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3">
+        <v>208529</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.38364</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3">
+        <v>15</v>
+      </c>
+      <c r="B87" s="3">
+        <v>219427</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.6836</v>
+      </c>
+      <c r="D87" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3">
+        <v>16</v>
+      </c>
+      <c r="B88" s="3">
+        <v>235211</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.68024</v>
+      </c>
+      <c r="D88" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3">
+        <v>31</v>
+      </c>
+      <c r="B89" s="3">
+        <v>387040</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.80095</v>
+      </c>
+      <c r="D89" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3">
+        <v>32</v>
+      </c>
+      <c r="B90" s="3">
+        <v>400155</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.79969</v>
+      </c>
+      <c r="D90" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3">
+        <v>63</v>
+      </c>
+      <c r="B91" s="3">
+        <v>521100</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1.20898</v>
+      </c>
+      <c r="D91" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3">
+        <v>64</v>
+      </c>
+      <c r="B92" s="3">
+        <v>424420</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1.50794</v>
+      </c>
+      <c r="D92" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3">
+        <v>127</v>
+      </c>
+      <c r="B93" s="3">
+        <v>652423</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.94659</v>
+      </c>
+      <c r="D93" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3">
+        <v>128</v>
+      </c>
+      <c r="B94" s="3">
+        <v>568970</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2.24968</v>
+      </c>
+      <c r="D94" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3">
+        <v>255</v>
+      </c>
+      <c r="B95" s="3">
+        <v>751909</v>
+      </c>
+      <c r="C95" s="3">
+        <v>3.39137</v>
+      </c>
+      <c r="D95" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3">
+        <v>256</v>
+      </c>
+      <c r="B96" s="3">
+        <v>686022</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3.73166</v>
+      </c>
+      <c r="D96" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3">
+        <v>511</v>
+      </c>
+      <c r="B97" s="3">
+        <v>792446</v>
+      </c>
+      <c r="C97" s="3">
+        <v>6.44839</v>
+      </c>
+      <c r="D97" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3">
+        <v>512</v>
+      </c>
+      <c r="B98" s="3">
+        <v>787841</v>
+      </c>
+      <c r="C98" s="3">
+        <v>6.49877</v>
+      </c>
+      <c r="D98" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B99" s="3">
+        <v>810804</v>
+      </c>
+      <c r="C99" s="3">
+        <v>12.6171</v>
+      </c>
+      <c r="D99" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B100" s="3">
+        <v>813926</v>
+      </c>
+      <c r="C100" s="3">
+        <v>12.581</v>
+      </c>
+      <c r="D100" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3">
+        <v>1</v>
+      </c>
+      <c r="B101" s="3">
+        <v>29348.8</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.34073</v>
+      </c>
+      <c r="D101" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3">
+        <v>2</v>
+      </c>
+      <c r="B102" s="3">
+        <v>59229.4</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.33767</v>
+      </c>
+      <c r="D102" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3">
+        <v>3</v>
+      </c>
+      <c r="B103" s="3">
+        <v>85130.5</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.3524</v>
+      </c>
+      <c r="D103" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3">
+        <v>4</v>
+      </c>
+      <c r="B104" s="3">
+        <v>109072</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.36673</v>
+      </c>
+      <c r="D104" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3">
+        <v>7</v>
+      </c>
+      <c r="B105" s="3">
+        <v>182254</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.38408</v>
+      </c>
+      <c r="D105" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3">
+        <v>8</v>
+      </c>
+      <c r="B106" s="3">
+        <v>208883</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.38299</v>
+      </c>
+      <c r="D106" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3">
+        <v>15</v>
+      </c>
+      <c r="B107" s="3">
+        <v>219684</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.6828</v>
+      </c>
+      <c r="D107" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3">
+        <v>16</v>
+      </c>
+      <c r="B108" s="3">
+        <v>235218</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.68022</v>
+      </c>
+      <c r="D108" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3">
+        <v>31</v>
+      </c>
+      <c r="B109" s="3">
+        <v>387791</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.7994</v>
+      </c>
+      <c r="D109" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3">
+        <v>32</v>
+      </c>
+      <c r="B110" s="3">
+        <v>400325</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.79935</v>
+      </c>
+      <c r="D110" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3">
+        <v>63</v>
+      </c>
+      <c r="B111" s="3">
+        <v>520657</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1.21001</v>
+      </c>
+      <c r="D111" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3">
+        <v>64</v>
+      </c>
+      <c r="B112" s="3">
+        <v>422010</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1.51655</v>
+      </c>
+      <c r="D112" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3">
+        <v>127</v>
+      </c>
+      <c r="B113" s="3">
+        <v>650158</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1.95337</v>
+      </c>
+      <c r="D113" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3">
+        <v>128</v>
+      </c>
+      <c r="B114" s="3">
+        <v>571834</v>
+      </c>
+      <c r="C114" s="3">
+        <v>2.23841</v>
+      </c>
+      <c r="D114" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3">
+        <v>255</v>
+      </c>
+      <c r="B115" s="3">
+        <v>752053</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3.39072</v>
+      </c>
+      <c r="D115" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3">
+        <v>256</v>
+      </c>
+      <c r="B116" s="3">
+        <v>683936</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3.74304</v>
+      </c>
+      <c r="D116" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3">
+        <v>511</v>
+      </c>
+      <c r="B117" s="3">
+        <v>792052</v>
+      </c>
+      <c r="C117" s="3">
+        <v>6.4516</v>
+      </c>
+      <c r="D117" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3">
+        <v>512</v>
+      </c>
+      <c r="B118" s="3">
+        <v>787735</v>
+      </c>
+      <c r="C118" s="3">
+        <v>6.49965</v>
+      </c>
+      <c r="D118" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B119" s="3">
+        <v>810762</v>
+      </c>
+      <c r="C119" s="3">
+        <v>12.6178</v>
+      </c>
+      <c r="D119" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B120" s="3">
+        <v>814100</v>
+      </c>
+      <c r="C120" s="3">
+        <v>12.5783</v>
+      </c>
+      <c r="D120" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3">
+        <v>1</v>
+      </c>
+      <c r="B121" s="3">
+        <v>29322.9</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.34103</v>
+      </c>
+      <c r="D121" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3">
+        <v>2</v>
+      </c>
+      <c r="B122" s="3">
+        <v>59192.6</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.33788</v>
+      </c>
+      <c r="D122" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3">
+        <v>3</v>
+      </c>
+      <c r="B123" s="3">
+        <v>82882.1</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.36196</v>
+      </c>
+      <c r="D123" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3">
+        <v>4</v>
+      </c>
+      <c r="B124" s="3">
+        <v>109230</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.3662</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3">
+        <v>7</v>
+      </c>
+      <c r="B125" s="3">
+        <v>181418</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.38585</v>
+      </c>
+      <c r="D125" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3">
+        <v>8</v>
+      </c>
+      <c r="B126" s="3">
+        <v>209046</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.38269</v>
+      </c>
+      <c r="D126" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3">
+        <v>15</v>
+      </c>
+      <c r="B127" s="3">
+        <v>220465</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.68038</v>
+      </c>
+      <c r="D127" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3">
+        <v>16</v>
+      </c>
+      <c r="B128" s="3">
+        <v>235156</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.6804</v>
+      </c>
+      <c r="D128" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3">
+        <v>31</v>
+      </c>
+      <c r="B129" s="3">
+        <v>387946</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.79908</v>
+      </c>
+      <c r="D129" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3">
+        <v>32</v>
+      </c>
+      <c r="B130" s="3">
+        <v>400360</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.79928</v>
+      </c>
+      <c r="D130" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3">
+        <v>63</v>
+      </c>
+      <c r="B131" s="3">
+        <v>520369</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1.21068</v>
+      </c>
+      <c r="D131" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3">
+        <v>64</v>
+      </c>
+      <c r="B132" s="3">
+        <v>422880</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1.51343</v>
+      </c>
+      <c r="D132" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3">
+        <v>127</v>
+      </c>
+      <c r="B133" s="3">
+        <v>653037</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1.94476</v>
+      </c>
+      <c r="D133" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3">
+        <v>128</v>
+      </c>
+      <c r="B134" s="3">
+        <v>572469</v>
+      </c>
+      <c r="C134" s="3">
+        <v>2.23593</v>
+      </c>
+      <c r="D134" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3">
+        <v>255</v>
+      </c>
+      <c r="B135" s="3">
+        <v>752323</v>
+      </c>
+      <c r="C135" s="3">
+        <v>3.3895</v>
+      </c>
+      <c r="D135" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3">
+        <v>256</v>
+      </c>
+      <c r="B136" s="3">
+        <v>683764</v>
+      </c>
+      <c r="C136" s="3">
+        <v>3.74398</v>
+      </c>
+      <c r="D136" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3">
+        <v>511</v>
+      </c>
+      <c r="B137" s="3">
+        <v>791926</v>
+      </c>
+      <c r="C137" s="3">
+        <v>6.45262</v>
+      </c>
+      <c r="D137" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3">
+        <v>512</v>
+      </c>
+      <c r="B138" s="3">
+        <v>787801</v>
+      </c>
+      <c r="C138" s="3">
+        <v>6.4991</v>
+      </c>
+      <c r="D138" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B139" s="3">
+        <v>810298</v>
+      </c>
+      <c r="C139" s="3">
+        <v>12.625</v>
+      </c>
+      <c r="D139" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B140" s="3">
+        <v>813714</v>
+      </c>
+      <c r="C140" s="3">
+        <v>12.5843</v>
+      </c>
+      <c r="D140" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3">
+        <v>1</v>
+      </c>
+      <c r="B141" s="3">
+        <v>29497.7</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.33901</v>
+      </c>
+      <c r="D141" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3">
+        <v>2</v>
+      </c>
+      <c r="B142" s="3">
+        <v>58348.2</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.34277</v>
+      </c>
+      <c r="D142" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3">
+        <v>3</v>
+      </c>
+      <c r="B143" s="3">
+        <v>84779.3</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.35386</v>
+      </c>
+      <c r="D143" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3">
+        <v>4</v>
+      </c>
+      <c r="B144" s="3">
+        <v>109233</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.36619</v>
+      </c>
+      <c r="D144" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="3">
+        <v>7</v>
+      </c>
+      <c r="B145" s="3">
+        <v>175986</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.39776</v>
+      </c>
+      <c r="D145" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3">
+        <v>8</v>
+      </c>
+      <c r="B146" s="3">
+        <v>201157</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0.3977</v>
+      </c>
+      <c r="D146" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3">
+        <v>15</v>
+      </c>
+      <c r="B147" s="3">
+        <v>220900</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.67904</v>
+      </c>
+      <c r="D147" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3">
+        <v>16</v>
+      </c>
+      <c r="B148" s="3">
+        <v>235589</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0.67915</v>
+      </c>
+      <c r="D148" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3">
+        <v>31</v>
+      </c>
+      <c r="B149" s="3">
+        <v>387534</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0.79993</v>
+      </c>
+      <c r="D149" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3">
+        <v>32</v>
+      </c>
+      <c r="B150" s="3">
+        <v>400300</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0.7994</v>
+      </c>
+      <c r="D150" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3">
+        <v>63</v>
+      </c>
+      <c r="B151" s="3">
+        <v>520588</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1.21017</v>
+      </c>
+      <c r="D151" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3">
+        <v>64</v>
+      </c>
+      <c r="B152" s="3">
+        <v>423922</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1.50971</v>
+      </c>
+      <c r="D152" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3">
+        <v>127</v>
+      </c>
+      <c r="B153" s="3">
+        <v>653400</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1.94368</v>
+      </c>
+      <c r="D153" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3">
+        <v>128</v>
+      </c>
+      <c r="B154" s="3">
+        <v>571740</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2.23878</v>
+      </c>
+      <c r="D154" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3">
+        <v>255</v>
+      </c>
+      <c r="B155" s="3">
+        <v>751689</v>
+      </c>
+      <c r="C155" s="3">
+        <v>3.39236</v>
+      </c>
+      <c r="D155" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3">
+        <v>256</v>
+      </c>
+      <c r="B156" s="3">
+        <v>684924</v>
+      </c>
+      <c r="C156" s="3">
+        <v>3.73764</v>
+      </c>
+      <c r="D156" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3">
+        <v>511</v>
+      </c>
+      <c r="B157" s="3">
+        <v>792330</v>
+      </c>
+      <c r="C157" s="3">
+        <v>6.44933</v>
+      </c>
+      <c r="D157" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3">
+        <v>512</v>
+      </c>
+      <c r="B158" s="3">
+        <v>787610</v>
+      </c>
+      <c r="C158" s="3">
+        <v>6.50068</v>
+      </c>
+      <c r="D158" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B159" s="3">
+        <v>810330</v>
+      </c>
+      <c r="C159" s="3">
+        <v>12.6245</v>
+      </c>
+      <c r="D159" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B160" s="3">
+        <v>814002</v>
+      </c>
+      <c r="C160" s="3">
+        <v>12.5798</v>
+      </c>
+      <c r="D160" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3">
+        <v>1</v>
+      </c>
+      <c r="B161" s="3">
+        <v>29716.8</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0.33651</v>
+      </c>
+      <c r="D161" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="3">
+        <v>2</v>
+      </c>
+      <c r="B162" s="3">
+        <v>58163.2</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0.34386</v>
+      </c>
+      <c r="D162" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3">
+        <v>3</v>
+      </c>
+      <c r="B163" s="3">
+        <v>83402.8</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0.3597</v>
+      </c>
+      <c r="D163" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3">
+        <v>4</v>
+      </c>
+      <c r="B164" s="3">
+        <v>109239</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0.36617</v>
+      </c>
+      <c r="D164" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3">
+        <v>7</v>
+      </c>
+      <c r="B165" s="3">
+        <v>182610</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.38333</v>
+      </c>
+      <c r="D165" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3">
+        <v>8</v>
+      </c>
+      <c r="B166" s="3">
+        <v>201258</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0.3975</v>
+      </c>
+      <c r="D166" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3">
+        <v>15</v>
+      </c>
+      <c r="B167" s="3">
+        <v>220501</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0.68027</v>
+      </c>
+      <c r="D167" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3">
+        <v>16</v>
+      </c>
+      <c r="B168" s="3">
+        <v>234973</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.68093</v>
+      </c>
+      <c r="D168" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3">
+        <v>31</v>
+      </c>
+      <c r="B169" s="3">
+        <v>387888</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0.7992</v>
+      </c>
+      <c r="D169" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="3">
+        <v>32</v>
+      </c>
+      <c r="B170" s="3">
+        <v>400285</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0.79943</v>
+      </c>
+      <c r="D170" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3">
+        <v>63</v>
+      </c>
+      <c r="B171" s="3">
+        <v>519438</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1.21285</v>
+      </c>
+      <c r="D171" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3">
+        <v>64</v>
+      </c>
+      <c r="B172" s="3">
+        <v>424496</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1.50767</v>
+      </c>
+      <c r="D172" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3">
+        <v>127</v>
+      </c>
+      <c r="B173" s="3">
+        <v>653158</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1.9444</v>
+      </c>
+      <c r="D173" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3">
+        <v>128</v>
+      </c>
+      <c r="B174" s="3">
+        <v>571702</v>
+      </c>
+      <c r="C174" s="3">
+        <v>2.23893</v>
+      </c>
+      <c r="D174" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3">
+        <v>255</v>
+      </c>
+      <c r="B175" s="3">
+        <v>752081</v>
+      </c>
+      <c r="C175" s="3">
+        <v>3.39059</v>
+      </c>
+      <c r="D175" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3">
+        <v>256</v>
+      </c>
+      <c r="B176" s="3">
+        <v>684150</v>
+      </c>
+      <c r="C176" s="3">
+        <v>3.74187</v>
+      </c>
+      <c r="D176" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="3">
+        <v>511</v>
+      </c>
+      <c r="B177" s="3">
+        <v>789936</v>
+      </c>
+      <c r="C177" s="3">
+        <v>6.46888</v>
+      </c>
+      <c r="D177" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3">
+        <v>512</v>
+      </c>
+      <c r="B178" s="3">
+        <v>787707</v>
+      </c>
+      <c r="C178" s="3">
+        <v>6.49988</v>
+      </c>
+      <c r="D178" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B179" s="3">
+        <v>810558</v>
+      </c>
+      <c r="C179" s="3">
+        <v>12.6209</v>
+      </c>
+      <c r="D179" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B180" s="3">
+        <v>814036</v>
+      </c>
+      <c r="C180" s="3">
+        <v>12.5793</v>
+      </c>
+      <c r="D180" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="3">
+        <v>1</v>
+      </c>
+      <c r="B181" s="3">
+        <v>29679.8</v>
+      </c>
+      <c r="C181" s="3">
+        <v>0.33693</v>
+      </c>
+      <c r="D181" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="3">
+        <v>2</v>
+      </c>
+      <c r="B182" s="3">
+        <v>59497.2</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0.33615</v>
+      </c>
+      <c r="D182" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="3">
+        <v>3</v>
+      </c>
+      <c r="B183" s="3">
+        <v>83282.4</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0.36022</v>
+      </c>
+      <c r="D183" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="3">
+        <v>4</v>
+      </c>
+      <c r="B184" s="3">
+        <v>109290</v>
+      </c>
+      <c r="C184" s="3">
+        <v>0.366</v>
+      </c>
+      <c r="D184" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="3">
+        <v>7</v>
+      </c>
+      <c r="B185" s="3">
+        <v>182825</v>
+      </c>
+      <c r="C185" s="3">
+        <v>0.38288</v>
+      </c>
+      <c r="D185" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="3">
+        <v>8</v>
+      </c>
+      <c r="B186" s="3">
+        <v>207781</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0.38502</v>
+      </c>
+      <c r="D186" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="3">
+        <v>15</v>
+      </c>
+      <c r="B187" s="3">
+        <v>219896</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0.68214</v>
+      </c>
+      <c r="D187" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="3">
+        <v>16</v>
+      </c>
+      <c r="B188" s="3">
+        <v>234980</v>
+      </c>
+      <c r="C188" s="3">
+        <v>0.68091</v>
+      </c>
+      <c r="D188" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="3">
+        <v>31</v>
+      </c>
+      <c r="B189" s="3">
+        <v>387868</v>
+      </c>
+      <c r="C189" s="3">
+        <v>0.79924</v>
+      </c>
+      <c r="D189" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="3">
+        <v>32</v>
+      </c>
+      <c r="B190" s="3">
+        <v>400150</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0.7997</v>
+      </c>
+      <c r="D190" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="3">
+        <v>63</v>
+      </c>
+      <c r="B191" s="3">
+        <v>520902</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1.20944</v>
+      </c>
+      <c r="D191" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3">
+        <v>64</v>
+      </c>
+      <c r="B192" s="3">
+        <v>423160</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1.51243</v>
+      </c>
+      <c r="D192" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="3">
+        <v>127</v>
+      </c>
+      <c r="B193" s="3">
+        <v>651683</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1.9488</v>
+      </c>
+      <c r="D193" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3">
+        <v>128</v>
+      </c>
+      <c r="B194" s="3">
+        <v>571720</v>
+      </c>
+      <c r="C194" s="3">
+        <v>2.23886</v>
+      </c>
+      <c r="D194" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="3">
+        <v>255</v>
+      </c>
+      <c r="B195" s="3">
+        <v>752006</v>
+      </c>
+      <c r="C195" s="3">
+        <v>3.39093</v>
+      </c>
+      <c r="D195" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3">
+        <v>256</v>
+      </c>
+      <c r="B196" s="3">
+        <v>684446</v>
+      </c>
+      <c r="C196" s="3">
+        <v>3.74025</v>
+      </c>
+      <c r="D196" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="3">
+        <v>511</v>
+      </c>
+      <c r="B197" s="3">
+        <v>792693</v>
+      </c>
+      <c r="C197" s="3">
+        <v>6.44638</v>
+      </c>
+      <c r="D197" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="3">
+        <v>512</v>
+      </c>
+      <c r="B198" s="3">
+        <v>787465</v>
+      </c>
+      <c r="C198" s="3">
+        <v>6.50188</v>
+      </c>
+      <c r="D198" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B199" s="3">
+        <v>811092</v>
+      </c>
+      <c r="C199" s="3">
+        <v>12.6126</v>
+      </c>
+      <c r="D199" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B200" s="3">
+        <v>813806</v>
+      </c>
+      <c r="C200" s="3">
+        <v>12.5829</v>
+      </c>
+      <c r="D200" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C200"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="18" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f t="shared" ref="B1:B64" si="0">2*C1</f>
+        <v>22222.2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>11111.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>57142.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28571.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>145454.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>72727.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>272728</v>
+      </c>
+      <c r="C7" s="1">
+        <v>136364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>290910</v>
+      </c>
+      <c r="C8" s="1">
+        <v>145455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>387500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>193750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>376470</v>
+      </c>
+      <c r="C10" s="1">
+        <v>188235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>492308</v>
+      </c>
+      <c r="C12" s="1">
+        <v>246154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>127</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>540426</v>
+      </c>
+      <c r="C13" s="1">
+        <v>270213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>128</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>556522</v>
+      </c>
+      <c r="C14" s="1">
+        <v>278261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>255</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>256</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>701370</v>
+      </c>
+      <c r="C16" s="1">
+        <v>350685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>511</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>798438</v>
+      </c>
+      <c r="C17" s="1">
+        <v>399219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>512</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>764180</v>
+      </c>
+      <c r="C18" s="1">
+        <v>382090</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>805512</v>
+      </c>
+      <c r="C19" s="1">
+        <v>402756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>44444.4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22222.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>66666.6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33333.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>155555.6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>77777.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>114285.8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>57142.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>290910</v>
+      </c>
+      <c r="C28" s="1">
+        <v>145455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>387500</v>
+      </c>
+      <c r="C29" s="1">
+        <v>193750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>376470</v>
+      </c>
+      <c r="C30" s="1">
+        <v>188235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>525000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>262500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>426666</v>
+      </c>
+      <c r="C32" s="1">
+        <v>213333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>127</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>635000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>317500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>128</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>609524</v>
+      </c>
+      <c r="C34" s="1">
+        <v>304762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>255</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>680000</v>
+      </c>
+      <c r="C35" s="1">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>256</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>664936</v>
+      </c>
+      <c r="C36" s="1">
+        <v>332468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>511</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>768422</v>
+      </c>
+      <c r="C37" s="1">
+        <v>384211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>512</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>781680</v>
+      </c>
+      <c r="C38" s="1">
+        <v>390840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>831708</v>
+      </c>
+      <c r="C39" s="1">
+        <v>415854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>815936</v>
+      </c>
+      <c r="C40" s="1">
+        <v>407968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>22222.2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11111.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>44444.4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>22222.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>66666.6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>33333.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="C44" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>155555.6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>77777.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>145454.6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>72727.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>272728</v>
+      </c>
+      <c r="C47" s="1">
+        <v>136364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>16</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>266666</v>
+      </c>
+      <c r="C48" s="1">
+        <v>133333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>31</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>364706</v>
+      </c>
+      <c r="C49" s="1">
+        <v>182353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>32</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>336842</v>
+      </c>
+      <c r="C50" s="1">
+        <v>168421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>64</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>492308</v>
+      </c>
+      <c r="C52" s="1">
+        <v>246154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>127</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>619512</v>
+      </c>
+      <c r="C53" s="1">
+        <v>309756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>128</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>595348</v>
+      </c>
+      <c r="C54" s="1">
+        <v>297674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>255</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>728572</v>
+      </c>
+      <c r="C55" s="1">
+        <v>364286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>256</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>742028</v>
+      </c>
+      <c r="C56" s="1">
+        <v>371014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>511</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>817600</v>
+      </c>
+      <c r="C57" s="1">
+        <v>408800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>512</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>806300</v>
+      </c>
+      <c r="C58" s="1">
+        <v>403150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>838524</v>
+      </c>
+      <c r="C59" s="1">
+        <v>419262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>825806</v>
+      </c>
+      <c r="C60" s="1">
+        <v>412903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>18181.82</v>
+      </c>
+      <c r="C61" s="1">
+        <v>9090.91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>36363.6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>18181.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="C63" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="C64" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" ref="B65:B128" si="1">2*C65</f>
+        <v>127272.8</v>
+      </c>
+      <c r="C65" s="1">
+        <v>63636.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="1"/>
+        <v>145454.6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>72727.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="C67" s="1">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>16</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="1"/>
+        <v>246154</v>
+      </c>
+      <c r="C68" s="1">
+        <v>123077</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>31</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="1"/>
+        <v>387500</v>
+      </c>
+      <c r="C69" s="1">
+        <v>193750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>32</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="1"/>
+        <v>376470</v>
+      </c>
+      <c r="C70" s="1">
+        <v>188235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>63</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="1"/>
+        <v>547826</v>
+      </c>
+      <c r="C71" s="1">
+        <v>273913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>64</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="1"/>
+        <v>474074</v>
+      </c>
+      <c r="C72" s="1">
+        <v>237037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>127</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="1"/>
+        <v>651282</v>
+      </c>
+      <c r="C73" s="1">
+        <v>325641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>128</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="1"/>
+        <v>595348</v>
+      </c>
+      <c r="C74" s="1">
+        <v>297674</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>255</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="1"/>
+        <v>809524</v>
+      </c>
+      <c r="C75" s="1">
+        <v>404762</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>256</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="1"/>
+        <v>691892</v>
+      </c>
+      <c r="C76" s="1">
+        <v>345946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>511</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="1"/>
+        <v>798438</v>
+      </c>
+      <c r="C77" s="1">
+        <v>399219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>512</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="1"/>
+        <v>819200</v>
+      </c>
+      <c r="C78" s="1">
+        <v>409600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="1"/>
+        <v>881896</v>
+      </c>
+      <c r="C79" s="1">
+        <v>440948</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="1"/>
+        <v>835918</v>
+      </c>
+      <c r="C80" s="1">
+        <v>417959</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="C82" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="1"/>
+        <v>66666.6</v>
+      </c>
+      <c r="C83" s="1">
+        <v>33333.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="1"/>
+        <v>88888.8</v>
+      </c>
+      <c r="C84" s="1">
+        <v>44444.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+      <c r="C85" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="1"/>
+        <v>145454.6</v>
+      </c>
+      <c r="C86" s="1">
+        <v>72727.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>15</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="C87" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>16</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="1"/>
+        <v>266666</v>
+      </c>
+      <c r="C88" s="1">
+        <v>133333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>31</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="1"/>
+        <v>387500</v>
+      </c>
+      <c r="C89" s="1">
+        <v>193750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>32</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="1"/>
+        <v>533334</v>
+      </c>
+      <c r="C90" s="1">
+        <v>266667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>63</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="1"/>
+        <v>525000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>262500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>64</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+      <c r="C92" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>127</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="1"/>
+        <v>635000</v>
+      </c>
+      <c r="C93" s="1">
+        <v>317500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="1"/>
+        <v>609524</v>
+      </c>
+      <c r="C94" s="1">
+        <v>304762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>255</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="1"/>
+        <v>728572</v>
+      </c>
+      <c r="C95" s="1">
+        <v>364286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>256</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="1"/>
+        <v>711112</v>
+      </c>
+      <c r="C96" s="1">
+        <v>355556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>511</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="1"/>
+        <v>817600</v>
+      </c>
+      <c r="C97" s="1">
+        <v>408800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>512</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="1"/>
+        <v>758518</v>
+      </c>
+      <c r="C98" s="1">
+        <v>379259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="1"/>
+        <v>808696</v>
+      </c>
+      <c r="C99" s="1">
+        <v>404348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="1"/>
+        <v>819200</v>
+      </c>
+      <c r="C100" s="1">
+        <v>409600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="1"/>
+        <v>22222.2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>11111.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="1"/>
+        <v>23529.4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>11764.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="C103" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="1"/>
+        <v>88888.8</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44444.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="1"/>
+        <v>127272.8</v>
+      </c>
+      <c r="C105" s="1">
+        <v>63636.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="1"/>
+        <v>145454.6</v>
+      </c>
+      <c r="C106" s="1">
+        <v>72727.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>15</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="1"/>
+        <v>214286</v>
+      </c>
+      <c r="C107" s="1">
+        <v>107143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>16</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="1"/>
+        <v>246154</v>
+      </c>
+      <c r="C108" s="1">
+        <v>123077</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>31</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="1"/>
+        <v>364706</v>
+      </c>
+      <c r="C109" s="1">
+        <v>182353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>32</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="1"/>
+        <v>266666</v>
+      </c>
+      <c r="C110" s="1">
+        <v>133333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>63</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="1"/>
+        <v>547826</v>
+      </c>
+      <c r="C111" s="1">
+        <v>273913</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>64</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="1"/>
+        <v>412904</v>
+      </c>
+      <c r="C112" s="1">
+        <v>206452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>127</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="1"/>
+        <v>686486</v>
+      </c>
+      <c r="C113" s="1">
+        <v>343243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>128</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="1"/>
+        <v>556522</v>
+      </c>
+      <c r="C114" s="1">
+        <v>278261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>255</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="1"/>
+        <v>784616</v>
+      </c>
+      <c r="C115" s="1">
+        <v>392308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>256</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="1"/>
+        <v>711112</v>
+      </c>
+      <c r="C116" s="1">
+        <v>355556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>511</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="1"/>
+        <v>774242</v>
+      </c>
+      <c r="C117" s="1">
+        <v>387121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>512</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="1"/>
+        <v>832520</v>
+      </c>
+      <c r="C118" s="1">
+        <v>416260</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="1"/>
+        <v>835102</v>
+      </c>
+      <c r="C119" s="1">
+        <v>417551</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="1"/>
+        <v>832520</v>
+      </c>
+      <c r="C120" s="1">
+        <v>416260</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="1"/>
+        <v>22222.2</v>
+      </c>
+      <c r="C121" s="1">
+        <v>11111.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="1"/>
+        <v>36363.6</v>
+      </c>
+      <c r="C122" s="1">
+        <v>18181.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>3</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="1"/>
+        <v>66666.6</v>
+      </c>
+      <c r="C123" s="1">
+        <v>33333.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="C124" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>7</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+      <c r="C125" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>8</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>160000</v>
+      </c>
+      <c r="C126" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>15</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>157894.8</v>
+      </c>
+      <c r="C127" s="1">
+        <v>78947.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>16</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>266666</v>
+      </c>
+      <c r="C128" s="1">
+        <v>133333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>31</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" ref="B129:B192" si="2">2*C129</f>
+        <v>326316</v>
+      </c>
+      <c r="C129" s="1">
+        <v>163158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>32</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="2"/>
+        <v>400000</v>
+      </c>
+      <c r="C130" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>63</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="2"/>
+        <v>504000</v>
+      </c>
+      <c r="C131" s="1">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>64</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="2"/>
+        <v>474074</v>
+      </c>
+      <c r="C132" s="1">
+        <v>237037</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>127</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="2"/>
+        <v>619512</v>
+      </c>
+      <c r="C133" s="1">
+        <v>309756</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>128</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="2"/>
+        <v>544680</v>
+      </c>
+      <c r="C134" s="1">
+        <v>272340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>255</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="2"/>
+        <v>784616</v>
+      </c>
+      <c r="C135" s="1">
+        <v>392308</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>256</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="2"/>
+        <v>624390</v>
+      </c>
+      <c r="C136" s="1">
+        <v>312195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>511</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="2"/>
+        <v>817600</v>
+      </c>
+      <c r="C137" s="1">
+        <v>408800</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>512</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="2"/>
+        <v>736690</v>
+      </c>
+      <c r="C138" s="1">
+        <v>368345</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="2"/>
+        <v>783908</v>
+      </c>
+      <c r="C139" s="1">
+        <v>391954</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="2"/>
+        <v>806300</v>
+      </c>
+      <c r="C140" s="1">
+        <v>403150</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="C141" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>2</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="C142" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>3</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="C143" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="2"/>
+        <v>72727.2</v>
+      </c>
+      <c r="C144" s="1">
+        <v>36363.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>7</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="2"/>
+        <v>140000</v>
+      </c>
+      <c r="C145" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>8</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="2"/>
+        <v>106666.6</v>
+      </c>
+      <c r="C146" s="1">
+        <v>53333.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>15</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="C147" s="1">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>16</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="2"/>
+        <v>320000</v>
+      </c>
+      <c r="C148" s="1">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>31</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="2"/>
+        <v>364706</v>
+      </c>
+      <c r="C149" s="1">
+        <v>182353</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>32</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="2"/>
+        <v>376470</v>
+      </c>
+      <c r="C150" s="1">
+        <v>188235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>63</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="2"/>
+        <v>504000</v>
+      </c>
+      <c r="C151" s="1">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>64</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="2"/>
+        <v>492308</v>
+      </c>
+      <c r="C152" s="1">
+        <v>246154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>127</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="2"/>
+        <v>635000</v>
+      </c>
+      <c r="C153" s="1">
+        <v>317500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>128</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="2"/>
+        <v>609524</v>
+      </c>
+      <c r="C154" s="1">
+        <v>304762</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>255</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="2"/>
+        <v>750000</v>
+      </c>
+      <c r="C155" s="1">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>256</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="2"/>
+        <v>711112</v>
+      </c>
+      <c r="C156" s="1">
+        <v>355556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>511</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="2"/>
+        <v>762686</v>
+      </c>
+      <c r="C157" s="1">
+        <v>381343</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>512</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="2"/>
+        <v>769924</v>
+      </c>
+      <c r="C158" s="1">
+        <v>384962</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="2"/>
+        <v>845454</v>
+      </c>
+      <c r="C159" s="1">
+        <v>422727</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="2"/>
+        <v>825806</v>
+      </c>
+      <c r="C160" s="1">
+        <v>412903</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="2"/>
+        <v>22222.2</v>
+      </c>
+      <c r="C161" s="1">
+        <v>11111.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>2</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="C162" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>3</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="2"/>
+        <v>54545.4</v>
+      </c>
+      <c r="C163" s="1">
+        <v>27272.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="2"/>
+        <v>72727.2</v>
+      </c>
+      <c r="C164" s="1">
+        <v>36363.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>7</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="2"/>
+        <v>140000</v>
+      </c>
+      <c r="C165" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>8</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="2"/>
+        <v>145454.6</v>
+      </c>
+      <c r="C166" s="1">
+        <v>72727.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>15</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="C167" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>16</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="2"/>
+        <v>266666</v>
+      </c>
+      <c r="C168" s="1">
+        <v>133333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>31</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="2"/>
+        <v>387500</v>
+      </c>
+      <c r="C169" s="1">
+        <v>193750</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>32</v>
+      </c>
+      <c r="B170" s="2">
+        <f t="shared" si="2"/>
+        <v>400000</v>
+      </c>
+      <c r="C170" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>63</v>
+      </c>
+      <c r="B171" s="2">
+        <f t="shared" si="2"/>
+        <v>525000</v>
+      </c>
+      <c r="C171" s="1">
+        <v>262500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>64</v>
+      </c>
+      <c r="B172" s="2">
+        <f t="shared" si="2"/>
+        <v>474074</v>
+      </c>
+      <c r="C172" s="1">
+        <v>237037</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>127</v>
+      </c>
+      <c r="B173" s="2">
+        <f t="shared" si="2"/>
+        <v>604762</v>
+      </c>
+      <c r="C173" s="1">
+        <v>302381</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>128</v>
+      </c>
+      <c r="B174" s="2">
+        <f t="shared" si="2"/>
+        <v>522448</v>
+      </c>
+      <c r="C174" s="1">
+        <v>261224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>255</v>
+      </c>
+      <c r="B175" s="2">
+        <f t="shared" si="2"/>
+        <v>708334</v>
+      </c>
+      <c r="C175" s="1">
+        <v>354167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>256</v>
+      </c>
+      <c r="B176" s="2">
+        <f t="shared" si="2"/>
+        <v>640000</v>
+      </c>
+      <c r="C176" s="1">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>511</v>
+      </c>
+      <c r="B177" s="2">
+        <f t="shared" si="2"/>
+        <v>873504</v>
+      </c>
+      <c r="C177" s="1">
+        <v>436752</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>512</v>
+      </c>
+      <c r="B178" s="2">
+        <f t="shared" si="2"/>
+        <v>781680</v>
+      </c>
+      <c r="C178" s="1">
+        <v>390840</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B179" s="2">
+        <f t="shared" si="2"/>
+        <v>805512</v>
+      </c>
+      <c r="C179" s="1">
+        <v>402756</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B180" s="2">
+        <f t="shared" si="2"/>
+        <v>790734</v>
+      </c>
+      <c r="C180" s="1">
+        <v>395367</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>1</v>
+      </c>
+      <c r="B181" s="2">
+        <f t="shared" si="2"/>
+        <v>22222.2</v>
+      </c>
+      <c r="C181" s="1">
+        <v>11111.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="2">
+        <f t="shared" si="2"/>
+        <v>33333.4</v>
+      </c>
+      <c r="C182" s="1">
+        <v>16666.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>3</v>
+      </c>
+      <c r="B183" s="2">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="C183" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>4</v>
+      </c>
+      <c r="B184" s="2">
+        <f t="shared" si="2"/>
+        <v>72727.2</v>
+      </c>
+      <c r="C184" s="1">
+        <v>36363.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>7</v>
+      </c>
+      <c r="B185" s="2">
+        <f t="shared" si="2"/>
+        <v>140000</v>
+      </c>
+      <c r="C185" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>8</v>
+      </c>
+      <c r="B186" s="2">
+        <f t="shared" si="2"/>
+        <v>145454.6</v>
+      </c>
+      <c r="C186" s="1">
+        <v>72727.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>15</v>
+      </c>
+      <c r="B187" s="2">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="C187" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>16</v>
+      </c>
+      <c r="B188" s="2">
+        <f t="shared" si="2"/>
+        <v>290910</v>
+      </c>
+      <c r="C188" s="1">
+        <v>145455</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>31</v>
+      </c>
+      <c r="B189" s="2">
+        <f t="shared" si="2"/>
+        <v>364706</v>
+      </c>
+      <c r="C189" s="1">
+        <v>182353</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>32</v>
+      </c>
+      <c r="B190" s="2">
+        <f t="shared" si="2"/>
+        <v>376470</v>
+      </c>
+      <c r="C190" s="1">
+        <v>188235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>63</v>
+      </c>
+      <c r="B191" s="2">
+        <f t="shared" si="2"/>
+        <v>393750</v>
+      </c>
+      <c r="C191" s="1">
+        <v>196875</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>64</v>
+      </c>
+      <c r="B192" s="2">
+        <f t="shared" si="2"/>
+        <v>474074</v>
+      </c>
+      <c r="C192" s="1">
+        <v>237037</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>127</v>
+      </c>
+      <c r="B193" s="2">
+        <f t="shared" ref="B193:B200" si="3">2*C193</f>
+        <v>651282</v>
+      </c>
+      <c r="C193" s="1">
+        <v>325641</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>128</v>
+      </c>
+      <c r="B194" s="2">
+        <f t="shared" si="3"/>
+        <v>673684</v>
+      </c>
+      <c r="C194" s="1">
+        <v>336842</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>255</v>
+      </c>
+      <c r="B195" s="2">
+        <f t="shared" si="3"/>
+        <v>689190</v>
+      </c>
+      <c r="C195" s="1">
+        <v>344595</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>256</v>
+      </c>
+      <c r="B196" s="2">
+        <f t="shared" si="3"/>
+        <v>775758</v>
+      </c>
+      <c r="C196" s="1">
+        <v>387879</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>511</v>
+      </c>
+      <c r="B197" s="2">
+        <f t="shared" si="3"/>
+        <v>811112</v>
+      </c>
+      <c r="C197" s="1">
+        <v>405556</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>512</v>
+      </c>
+      <c r="B198" s="2">
+        <f t="shared" si="3"/>
+        <v>764180</v>
+      </c>
+      <c r="C198" s="1">
+        <v>382090</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B199" s="2">
+        <f t="shared" si="3"/>
+        <v>874358</v>
+      </c>
+      <c r="C199" s="1">
+        <v>437179</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B200" s="2">
+        <f t="shared" si="3"/>
+        <v>853334</v>
+      </c>
+      <c r="C200" s="1">
+        <v>426667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>